--- a/Material/ThinhND/ThinhND_Report/Test Case.xlsx
+++ b/Material/ThinhND/ThinhND_Report/Test Case.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr checkCompatibility="1"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learning\Capstone Project\football-pitches-booking\Material\ThinhND\ThinhND_Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8190" tabRatio="821" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8190" tabRatio="821" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,8 @@
     <sheet name="Test Report" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Field Management'!$A$8:$H$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Promotion Management'!$A$8:$H$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Field Management'!$A$8:$H$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Promotion Management'!$A$8:$H$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Reservation Management'!$A$8:$H$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Stadium Management'!$A$8:$H$12</definedName>
     <definedName name="ACTION">#REF!</definedName>
@@ -219,7 +219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="151">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -615,20 +615,240 @@
     <t>Test viewing "Quản lý sân bóng" form</t>
   </si>
   <si>
+    <t>FieldManagement</t>
+  </si>
+  <si>
+    <t>PromotionManagement</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Staff
+2. Click "Quản lý khuyến mãi" tab in the menu.</t>
+  </si>
+  <si>
     <t>The "Quản lý sân bóng" view form is displayed as list with the following informations:
-- Number of field
-- Parent field
-- Field type</t>
+- "Số sân"
+- "Sân mẹ"
+- "Loại sân"
+- "Tình trạng hoạt động"</t>
+  </si>
+  <si>
+    <t>The "Quản lý khuyến mãi" view form is displayed as list with the following informations:
+- "Số sân"
+- "Thời gian khuyến mãi"
+- "Giảm giá"
+- "Tình trạng hoạt động"</t>
+  </si>
+  <si>
+    <t>Test creating a promotion with blank fields</t>
+  </si>
+  <si>
+    <t>Test creating a promotion with field not existed</t>
+  </si>
+  <si>
+    <t>Error message will be displayed:
+- "Sân bóng không tồn tại".</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Owner
+2. Go to "Quản lý sân bóng" page
+3. Click "Thêm sân" button
+4. Input require information
+- Input "1" into "Số sân" field
+- Input "2" into "Sân mẹ" field ("2" is not existed field of this stadium in database)
+- Select "11 người" in "Loại sân" field
+5. Click "Lưu" button</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Owner
+2. Go to "Quản lý sân bóng" page
+3. Click "Thêm sân" button
+4. Input require information
+- Input "1" into "Số sân" field
+- Blank "Sân mẹ" field
+- Select "11 người" in "Loại sân" field
+5. Click "Lưu" button</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Owner
+2. Go to "Quản lý sân bóng" page
+3. Click "Thêm sân" button
+4. Input require information
+- Input "2" into "Số sân" field
+- Input "1" into "Sân mẹ" field
+- Select "11 người" in "Loại sân" field
+5. Click "Lưu" button</t>
+  </si>
+  <si>
+    <t>Error message will be displayed:
+- "Số sân đã tồn tại, xin vui lòng chọn số sân khác".</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Owner
+2. Go to "Quản lý sân bóng" page
+3. Click "Thêm sân" button
+4. Input require information
+- Input "a" into "Số sân" field
+- Input "1" into "Sân mẹ" field
+- Select "11 người" in "Loại sân" field
+5. Click "Lưu" button</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Owner
+2. Go to "Quản lý sân bóng" page
+3. Click "Thêm sân" button
+4. Input require information
+- Input "1" into "Số sân" field
+- Input "1" into "Sân mẹ" field
+- Select "11 người" in "Loại sân" field
+5. Click "Lưu" button</t>
+  </si>
+  <si>
+    <t>Error message will be displayed:
+- "Số sân không chính xác, vui lòng nhập lại số sân".</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Owner
+2. Go to "Quản lý sân bóng" page
+3. Click in link named "2" in "Số sân" column
+4. Input require information
+- Input "a" into "Số sân" field
+- Input "1" into "Sân mẹ" field
+- Select "11 người" in "Loại sân" field
+5. Click "Lưu" button</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Owner
+2. Go to "Quản lý sân bóng" page
+3. Click in link named "2" in "Số sân" column
+4. Input require information
+- Input "1" into "Số sân" field
+- Input "1" into "Sân mẹ" field
+- Select "11 người" in "Loại sân" field
+5. Click "Lưu" button</t>
   </si>
   <si>
     <t>1. Login the system as Stadium Staff
-2. Click "Quản lý sân bóng" tab in the menu.</t>
-  </si>
-  <si>
-    <t>FieldManagement</t>
-  </si>
-  <si>
-    <t>PromotionManagement</t>
+2. Go to "Quản lý khuyến mãi" page
+3. Click "Thêm khuyến mãi" button
+4. Click "Lưu" button</t>
+  </si>
+  <si>
+    <t>Test creating a promotion with "Thời gian kết thúc" is over</t>
+  </si>
+  <si>
+    <t>Error message will be displayed:
+- "Thời gian khuyến mãi đã kết thúc, xin vui lòng chọn thời gian kết thúc khác".</t>
+  </si>
+  <si>
+    <t>Test creating a promotion with "Thời gian kết thúc" before "Thời gian bắt đầu"</t>
+  </si>
+  <si>
+    <t>Error message will be displayed:
+- "Thời gian khuyến mãi không đúng, vui lòng chọn thời gian khác".</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Staff
+2. Go to "Quản lý sân bóng" page
+3. Click "Thêm sân" button
+4. Input require information
+- Input "4" into "Số sân" field ("4" is not existed field of this stadium in database)
+- Input "08/03/2014" into "Thời gian bắt đầu"
+- Input "10/03/2014" into "Thời gian kết thúc" field
+- Input "10" into "Giảm giá (%)" field
+5. Click "Lưu" button</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Staff
+2. Go to "Quản lý sân bóng" page
+3. Click "Thêm sân" button
+4. Input require information
+- Input "1" into "Số sân" field
+- Input "05/03/2014" into "Thời gian bắt đầu"
+- Input "06/03/2014" into "Thời gian kết thúc" field
+- Input "10" into "Giảm giá (%)" field
+5. Click "Lưu" button</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Staff
+2. Go to "Quản lý sân bóng" page
+3. Click "Thêm sân" button
+4. Input require information
+- Input "1" into "Số sân" field
+- Input "08/03/2014" into "Thời gian bắt đầu"
+- Input "06/03/2014" into "Thời gian kết thúc" field
+- Input "10" into "Giảm giá (%)" field
+5. Click "Lưu" button</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Staff
+2. Go to "Quản lý sân bóng" page
+3. Click "Thêm sân" button
+4. Input require information
+- Input "1" into "Số sân" field
+- Input "08/03/2014" into "Thời gian bắt đầu"
+- Input "10/03/2014" into "Thời gian kết thúc" field
+- Input "10" into "Giảm giá (%)" field
+5. Click "Lưu" button</t>
+  </si>
+  <si>
+    <t>Test creating a field with "Số sân" is not a number</t>
+  </si>
+  <si>
+    <t>Test creating a field with "Số sân" is not available</t>
+  </si>
+  <si>
+    <t>Test creating a field with blank "Sân mẹ" field</t>
+  </si>
+  <si>
+    <t>Test creating a field with "Sân mẹ" is existed</t>
+  </si>
+  <si>
+    <t>Test updating a field with "Số sân" is not a number</t>
+  </si>
+  <si>
+    <t>Test updating a field with "Số sân" is not available</t>
+  </si>
+  <si>
+    <t>Test updating a field with "Sân mẹ" is not existed</t>
+  </si>
+  <si>
+    <t>Test updating a field with blank "Sân mẹ" field</t>
+  </si>
+  <si>
+    <t>Test updating a field with "Sân mẹ" is existed</t>
+  </si>
+  <si>
+    <t>Test creating a field with "Sân mẹ" is not existed</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Staff
+2. Go to "Quản lý sân bóng" page
+3. Click "Thêm sân" button
+4. Input require information
+- Input "1" into "Số sân" field
+- Input "08/03/2014" into "Thời gian bắt đầu"
+- Input "10/03/2014" into "Thời gian kết thúc" field
+- Input "12a" into "Giảm giá (%)" field
+5. Click "Lưu" button</t>
+  </si>
+  <si>
+    <t>Error message will be displayed:
+- "Giá trị giảm giá không chính xác, vui lòng nhập lại".</t>
+  </si>
+  <si>
+    <t>Test creating a promotion</t>
+  </si>
+  <si>
+    <t>Test creating a promotion with "Giảm giá (%)" is not a number</t>
+  </si>
+  <si>
+    <t>Redirect to "Quản lý khuyến mãi" page with new "Khuyến mãi" created</t>
+  </si>
+  <si>
+    <t>Redirect to "Quản lý sân bóng" page with new "Sân bóng" is created</t>
+  </si>
+  <si>
+    <t>Redirect to "Quản lý sân bóng" page with new information of "Sân bóng" is updated</t>
   </si>
 </sst>
 </file>
@@ -636,7 +856,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1348,7 +1568,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1375,13 +1595,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1571,7 +1791,7 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2585,11 +2805,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3:F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2623,7 +2843,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="145" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C2" s="145"/>
       <c r="D2" s="145"/>
@@ -2694,23 +2914,23 @@
     </row>
     <row r="6" spans="1:10" s="70" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="80">
-        <f>COUNTIF(F10:F998,"Pass")</f>
-        <v>11</v>
+        <f>COUNTIF(F10:F1002,"Pass")</f>
+        <v>15</v>
       </c>
       <c r="B6" s="81">
-        <f>COUNTIF(F10:F998,"Fail")</f>
+        <f>COUNTIF(F10:F1002,"Fail")</f>
         <v>0</v>
       </c>
       <c r="C6" s="81">
-        <f>E6-D6-B6-A6</f>
+        <f ca="1">E6-D6-B6-A6</f>
+        <v>-2</v>
+      </c>
+      <c r="D6" s="82">
+        <f>COUNTIF(F$10:F$1002,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="82">
-        <f>COUNTIF(F$10:F$998,"N/A")</f>
-        <v>0</v>
-      </c>
       <c r="E6" s="144">
-        <f>COUNTA(A10:A998)</f>
+        <f ca="1">COUNTA(A10:A1002)</f>
         <v>11</v>
       </c>
       <c r="F6" s="144"/>
@@ -2769,7 +2989,7 @@
       <c r="H9" s="89"/>
       <c r="I9" s="90"/>
     </row>
-    <row r="10" spans="1:10" s="95" customFormat="1" ht="88.5" customHeight="1">
+    <row r="10" spans="1:10" s="95" customFormat="1" ht="93" customHeight="1">
       <c r="A10" s="91" t="str">
         <f>IF(OR(B10&lt;&gt;"",D10&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-9,"##")&amp;"]","")</f>
         <v>[FieldManagement-1]</v>
@@ -2781,7 +3001,7 @@
         <v>66</v>
       </c>
       <c r="D10" s="96" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E10" s="92"/>
       <c r="F10" s="91" t="s">
@@ -2808,7 +3028,7 @@
     </row>
     <row r="12" spans="1:10" ht="76.5" customHeight="1">
       <c r="A12" s="91" t="str">
-        <f>IF(OR(B12&lt;&gt;"",D12&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" ref="A12:A17" si="0">IF(OR(B12&lt;&gt;"",D12&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[FieldManagement-2]</v>
       </c>
       <c r="B12" s="91" t="s">
@@ -2830,19 +3050,19 @@
       <c r="H12" s="93"/>
       <c r="I12" s="94"/>
     </row>
-    <row r="13" spans="1:10" ht="162.75" customHeight="1">
+    <row r="13" spans="1:10" ht="130.5" customHeight="1">
       <c r="A13" s="91" t="str">
-        <f>IF(OR(B13&lt;&gt;"",D13&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" si="0"/>
         <v>[FieldManagement-3]</v>
       </c>
       <c r="B13" s="91" t="s">
-        <v>79</v>
+        <v>134</v>
       </c>
       <c r="C13" s="91" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D13" s="91" t="s">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="E13" s="91"/>
       <c r="F13" s="91" t="s">
@@ -2854,19 +3074,19 @@
       <c r="H13" s="93"/>
       <c r="I13" s="94"/>
     </row>
-    <row r="14" spans="1:10" ht="132.75" customHeight="1">
+    <row r="14" spans="1:10" ht="141.75" customHeight="1">
       <c r="A14" s="91" t="str">
-        <f>IF(OR(B14&lt;&gt;"",D14&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" si="0"/>
         <v>[FieldManagement-4]</v>
       </c>
       <c r="B14" s="91" t="s">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="C14" s="91" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="D14" s="91" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="E14" s="91"/>
       <c r="F14" s="91" t="s">
@@ -2878,104 +3098,104 @@
       <c r="H14" s="93"/>
       <c r="I14" s="94"/>
     </row>
-    <row r="15" spans="1:10" ht="127.5">
+    <row r="15" spans="1:10" ht="162.75" customHeight="1">
       <c r="A15" s="91" t="str">
-        <f>IF(OR(B15&lt;&gt;"",D15&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" si="0"/>
         <v>[FieldManagement-5]</v>
       </c>
       <c r="B15" s="91" t="s">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="C15" s="91" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="D15" s="91" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="E15" s="91"/>
       <c r="F15" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="135">
+      <c r="G15" s="134">
         <v>41705</v>
       </c>
-      <c r="H15" s="97"/>
-      <c r="I15" s="98"/>
-    </row>
-    <row r="16" spans="1:10" s="70" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A16" s="87"/>
-      <c r="B16" s="87" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="90"/>
-    </row>
-    <row r="17" spans="1:9" ht="89.25">
+      <c r="H15" s="93"/>
+      <c r="I15" s="94"/>
+    </row>
+    <row r="16" spans="1:10" ht="132.75" customHeight="1">
+      <c r="A16" s="91" t="str">
+        <f t="shared" si="0"/>
+        <v>[FieldManagement-6]</v>
+      </c>
+      <c r="B16" s="91" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="91" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="91" t="s">
+        <v>149</v>
+      </c>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="134">
+        <v>41705</v>
+      </c>
+      <c r="H16" s="93"/>
+      <c r="I16" s="94"/>
+    </row>
+    <row r="17" spans="1:10" ht="127.5">
       <c r="A17" s="91" t="str">
-        <f>IF(OR(B17&lt;&gt;"",D17&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
-        <v>[FieldManagement-6]</v>
+        <f t="shared" si="0"/>
+        <v>[FieldManagement-7]</v>
       </c>
       <c r="B17" s="91" t="s">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="C17" s="91" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="D17" s="91" t="s">
-        <v>68</v>
+        <v>149</v>
       </c>
       <c r="E17" s="91"/>
       <c r="F17" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="134">
+      <c r="G17" s="135">
         <v>41705</v>
       </c>
-      <c r="H17" s="93"/>
-      <c r="I17" s="94"/>
-    </row>
-    <row r="18" spans="1:9" ht="114.75">
-      <c r="A18" s="91" t="str">
-        <f>IF(OR(B18&lt;&gt;"",D18&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
-        <v>[FieldManagement-7]</v>
-      </c>
-      <c r="B18" s="91" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="91" t="s">
-        <v>98</v>
-      </c>
-      <c r="D18" s="91" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="91"/>
-      <c r="F18" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="134">
-        <v>41705</v>
-      </c>
-      <c r="H18" s="93"/>
-      <c r="I18" s="94"/>
-    </row>
-    <row r="19" spans="1:9" ht="89.25">
+      <c r="H17" s="97"/>
+      <c r="I17" s="98"/>
+    </row>
+    <row r="18" spans="1:10" s="70" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A18" s="87"/>
+      <c r="B18" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="88"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="90"/>
+    </row>
+    <row r="19" spans="1:10" ht="89.25">
       <c r="A19" s="91" t="str">
         <f>IF(OR(B19&lt;&gt;"",D19&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
         <v>[FieldManagement-8]</v>
       </c>
       <c r="B19" s="91" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C19" s="91" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D19" s="91" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="E19" s="91"/>
       <c r="F19" s="91" t="s">
@@ -2987,55 +3207,67 @@
       <c r="H19" s="93"/>
       <c r="I19" s="94"/>
     </row>
-    <row r="20" spans="1:9" ht="102">
+    <row r="20" spans="1:10" ht="140.25">
       <c r="A20" s="91" t="str">
-        <f>IF(OR(B20&lt;&gt;"",D20&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
-        <v>[FieldManagement-9]</v>
+        <f>IF(OR(B20&lt;&gt;"",D20&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[FieldManagement-10]</v>
       </c>
       <c r="B20" s="91" t="s">
-        <v>85</v>
+        <v>138</v>
       </c>
       <c r="C20" s="91" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="D20" s="91" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="E20" s="91"/>
       <c r="F20" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="135">
+      <c r="G20" s="134">
         <v>41705</v>
       </c>
       <c r="H20" s="93"/>
       <c r="I20" s="94"/>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="87"/>
-      <c r="B21" s="87" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="89"/>
-    </row>
-    <row r="22" spans="1:9" ht="63.75">
+    <row r="21" spans="1:10" ht="140.25">
+      <c r="A21" s="91" t="str">
+        <f>IF(OR(B21&lt;&gt;"",D21&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[FieldManagement-11]</v>
+      </c>
+      <c r="B21" s="91" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" s="91" t="s">
+        <v>124</v>
+      </c>
+      <c r="D21" s="91" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="134">
+        <v>41705</v>
+      </c>
+      <c r="H21" s="93"/>
+      <c r="I21" s="94"/>
+    </row>
+    <row r="22" spans="1:10" ht="114.75">
       <c r="A22" s="91" t="str">
-        <f>IF(OR(B22&lt;&gt;"",D22&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-12,"##")&amp;"]","")</f>
-        <v>[FieldManagement-10]</v>
+        <f ca="1">IF(OR(A22&lt;&gt;"",C22&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
+        <v>[FieldManagement-9]</v>
       </c>
       <c r="B22" s="91" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="C22" s="91" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D22" s="91" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="E22" s="91"/>
       <c r="F22" s="91" t="s">
@@ -3045,44 +3277,130 @@
         <v>41705</v>
       </c>
       <c r="H22" s="93"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="87"/>
-      <c r="B23" s="87" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="88"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
-      <c r="H23" s="89"/>
-    </row>
-    <row r="24" spans="1:9" ht="63.75">
+      <c r="I22" s="8"/>
+      <c r="J22" s="94"/>
+    </row>
+    <row r="23" spans="1:10" ht="89.25">
+      <c r="A23" s="91" t="str">
+        <f ca="1">IF(OR(A23&lt;&gt;"",C23&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
+        <v>[FieldManagement-10]</v>
+      </c>
+      <c r="B23" s="91" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" s="91" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="91" t="s">
+        <v>150</v>
+      </c>
+      <c r="E23" s="91"/>
+      <c r="F23" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="134">
+        <v>41705</v>
+      </c>
+      <c r="H23" s="93"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="94"/>
+    </row>
+    <row r="24" spans="1:10" ht="102">
       <c r="A24" s="91" t="str">
-        <f>IF(OR(B24&lt;&gt;"",D24&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-13,"##")&amp;"]","")</f>
-        <v>[FieldManagement-11]</v>
+        <f>IF(OR(B24&lt;&gt;"",D24&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
+        <v>[FieldManagement-13]</v>
       </c>
       <c r="B24" s="91" t="s">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="C24" s="91" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D24" s="91" t="s">
-        <v>91</v>
+        <v>150</v>
       </c>
       <c r="E24" s="91"/>
       <c r="F24" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="G24" s="134">
+      <c r="G24" s="135">
         <v>41705</v>
       </c>
       <c r="H24" s="93"/>
+      <c r="I24" s="94"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="87"/>
+      <c r="B25" s="87" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="89"/>
+    </row>
+    <row r="26" spans="1:10" ht="63.75">
+      <c r="A26" s="91" t="str">
+        <f>IF(OR(B26&lt;&gt;"",D26&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-12,"##")&amp;"]","")</f>
+        <v>[FieldManagement-14]</v>
+      </c>
+      <c r="B26" s="91" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="91" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="91"/>
+      <c r="F26" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="134">
+        <v>41705</v>
+      </c>
+      <c r="H26" s="93"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="87"/>
+      <c r="B27" s="87" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="88"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="88"/>
+      <c r="H27" s="89"/>
+    </row>
+    <row r="28" spans="1:10" ht="63.75">
+      <c r="A28" s="91" t="str">
+        <f>IF(OR(B28&lt;&gt;"",D28&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-13,"##")&amp;"]","")</f>
+        <v>[FieldManagement-15]</v>
+      </c>
+      <c r="B28" s="91" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="91" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="91" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="91"/>
+      <c r="F28" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="134">
+        <v>41705</v>
+      </c>
+      <c r="H28" s="93"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:H16"/>
+  <autoFilter ref="A8:H18"/>
   <mergeCells count="5">
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="B2:F2"/>
@@ -3092,7 +3410,7 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F3 F7:F145">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F3 E22:E23 F24:F149 F7:F21">
       <formula1>$J$2:$J$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3112,8 +3430,8 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <pane ySplit="8" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3403,11 +3721,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3:F3"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3441,7 +3759,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="145" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C2" s="145"/>
       <c r="D2" s="145"/>
@@ -3512,11 +3830,11 @@
     </row>
     <row r="6" spans="1:10" s="70" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="80">
-        <f>COUNTIF(F10:F998,"Pass")</f>
-        <v>11</v>
+        <f>COUNTIF(F10:F1000,"Pass")</f>
+        <v>13</v>
       </c>
       <c r="B6" s="81">
-        <f>COUNTIF(F10:F998,"Fail")</f>
+        <f>COUNTIF(F10:F1000,"Fail")</f>
         <v>0</v>
       </c>
       <c r="C6" s="81">
@@ -3524,12 +3842,12 @@
         <v>0</v>
       </c>
       <c r="D6" s="82">
-        <f>COUNTIF(F$10:F$998,"N/A")</f>
+        <f>COUNTIF(F$10:F$1000,"N/A")</f>
         <v>0</v>
       </c>
       <c r="E6" s="144">
-        <f>COUNTA(A10:A998)</f>
-        <v>11</v>
+        <f>COUNTA(A10:A1000)</f>
+        <v>13</v>
       </c>
       <c r="F6" s="144"/>
       <c r="G6" s="78"/>
@@ -3587,7 +3905,7 @@
       <c r="H9" s="89"/>
       <c r="I9" s="90"/>
     </row>
-    <row r="10" spans="1:10" s="95" customFormat="1" ht="88.5" customHeight="1">
+    <row r="10" spans="1:10" s="95" customFormat="1" ht="93.75" customHeight="1">
       <c r="A10" s="91" t="str">
         <f>IF(OR(B10&lt;&gt;"",D10&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-9,"##")&amp;"]","")</f>
         <v>[PromotionManagement-1]</v>
@@ -3596,10 +3914,10 @@
         <v>106</v>
       </c>
       <c r="C10" s="91" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D10" s="96" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="E10" s="92"/>
       <c r="F10" s="91" t="s">
@@ -3626,14 +3944,14 @@
     </row>
     <row r="12" spans="1:10" ht="76.5" customHeight="1">
       <c r="A12" s="91" t="str">
-        <f>IF(OR(B12&lt;&gt;"",D12&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" ref="A12:A17" si="0">IF(OR(B12&lt;&gt;"",D12&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[PromotionManagement-2]</v>
       </c>
       <c r="B12" s="91" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="C12" s="91" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="D12" s="91" t="s">
         <v>68</v>
@@ -3648,19 +3966,19 @@
       <c r="H12" s="93"/>
       <c r="I12" s="94"/>
     </row>
-    <row r="13" spans="1:10" ht="162.75" customHeight="1">
+    <row r="13" spans="1:10" ht="201.75" customHeight="1">
       <c r="A13" s="91" t="str">
-        <f>IF(OR(B13&lt;&gt;"",D13&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" si="0"/>
         <v>[PromotionManagement-3]</v>
       </c>
       <c r="B13" s="91" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="C13" s="91" t="s">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="D13" s="91" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="E13" s="91"/>
       <c r="F13" s="91" t="s">
@@ -3672,19 +3990,19 @@
       <c r="H13" s="93"/>
       <c r="I13" s="94"/>
     </row>
-    <row r="14" spans="1:10" ht="132.75" customHeight="1">
+    <row r="14" spans="1:10" ht="170.25" customHeight="1">
       <c r="A14" s="91" t="str">
-        <f>IF(OR(B14&lt;&gt;"",D14&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" si="0"/>
         <v>[PromotionManagement-4]</v>
       </c>
       <c r="B14" s="91" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="C14" s="91" t="s">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="D14" s="91" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="E14" s="91"/>
       <c r="F14" s="91" t="s">
@@ -3696,90 +4014,90 @@
       <c r="H14" s="93"/>
       <c r="I14" s="94"/>
     </row>
-    <row r="15" spans="1:10" ht="127.5">
+    <row r="15" spans="1:10" ht="173.25" customHeight="1">
       <c r="A15" s="91" t="str">
-        <f>IF(OR(B15&lt;&gt;"",D15&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" si="0"/>
         <v>[PromotionManagement-5]</v>
       </c>
       <c r="B15" s="91" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="C15" s="91" t="s">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="D15" s="91" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="E15" s="91"/>
       <c r="F15" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="135">
+      <c r="G15" s="134">
         <v>41705</v>
       </c>
-      <c r="H15" s="97"/>
-      <c r="I15" s="98"/>
-    </row>
-    <row r="16" spans="1:10" s="70" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A16" s="87"/>
-      <c r="B16" s="87" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="90"/>
-    </row>
-    <row r="17" spans="1:9" ht="89.25">
+      <c r="H15" s="93"/>
+      <c r="I15" s="94"/>
+    </row>
+    <row r="16" spans="1:10" ht="177.75" customHeight="1">
+      <c r="A16" s="91" t="str">
+        <f t="shared" si="0"/>
+        <v>[PromotionManagement-6]</v>
+      </c>
+      <c r="B16" s="91" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" s="91" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" s="91" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="134">
+        <v>41705</v>
+      </c>
+      <c r="H16" s="93"/>
+      <c r="I16" s="94"/>
+    </row>
+    <row r="17" spans="1:9" ht="165.75">
       <c r="A17" s="91" t="str">
-        <f>IF(OR(B17&lt;&gt;"",D17&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
-        <v>[PromotionManagement-6]</v>
+        <f t="shared" si="0"/>
+        <v>[PromotionManagement-7]</v>
       </c>
       <c r="B17" s="91" t="s">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="C17" s="91" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="D17" s="91" t="s">
-        <v>68</v>
+        <v>148</v>
       </c>
       <c r="E17" s="91"/>
       <c r="F17" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="134">
+      <c r="G17" s="135">
         <v>41705</v>
       </c>
-      <c r="H17" s="93"/>
-      <c r="I17" s="94"/>
-    </row>
-    <row r="18" spans="1:9" ht="114.75">
-      <c r="A18" s="91" t="str">
-        <f>IF(OR(B18&lt;&gt;"",D18&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
-        <v>[PromotionManagement-7]</v>
-      </c>
-      <c r="B18" s="91" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="91" t="s">
-        <v>98</v>
-      </c>
-      <c r="D18" s="91" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="91"/>
-      <c r="F18" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="134">
-        <v>41705</v>
-      </c>
-      <c r="H18" s="93"/>
-      <c r="I18" s="94"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="98"/>
+    </row>
+    <row r="18" spans="1:9" s="70" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A18" s="87"/>
+      <c r="B18" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="88"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="90"/>
     </row>
     <row r="19" spans="1:9" ht="89.25">
       <c r="A19" s="91" t="str">
@@ -3787,13 +4105,13 @@
         <v>[PromotionManagement-8]</v>
       </c>
       <c r="B19" s="91" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C19" s="91" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D19" s="91" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="E19" s="91"/>
       <c r="F19" s="91" t="s">
@@ -3805,69 +4123,82 @@
       <c r="H19" s="93"/>
       <c r="I19" s="94"/>
     </row>
-    <row r="20" spans="1:9" ht="102">
+    <row r="20" spans="1:9" ht="114.75">
       <c r="A20" s="91" t="str">
         <f>IF(OR(B20&lt;&gt;"",D20&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
         <v>[PromotionManagement-9]</v>
       </c>
       <c r="B20" s="91" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C20" s="91" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D20" s="91" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="E20" s="91"/>
       <c r="F20" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="135">
+      <c r="G20" s="134">
         <v>41705</v>
       </c>
       <c r="H20" s="93"/>
       <c r="I20" s="94"/>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="87"/>
-      <c r="B21" s="87" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="89"/>
-    </row>
-    <row r="22" spans="1:9" ht="63.75">
+    <row r="21" spans="1:9" ht="89.25">
+      <c r="A21" s="91" t="str">
+        <f>IF(OR(B21&lt;&gt;"",D21&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
+        <v>[PromotionManagement-10]</v>
+      </c>
+      <c r="B21" s="91" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="91" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="91" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="134">
+        <v>41705</v>
+      </c>
+      <c r="H21" s="93"/>
+      <c r="I21" s="94"/>
+    </row>
+    <row r="22" spans="1:9" ht="102">
       <c r="A22" s="91" t="str">
-        <f>IF(OR(B22&lt;&gt;"",D22&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-12,"##")&amp;"]","")</f>
-        <v>[PromotionManagement-10]</v>
+        <f>IF(OR(B22&lt;&gt;"",D22&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
+        <v>[PromotionManagement-11]</v>
       </c>
       <c r="B22" s="91" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C22" s="91" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="D22" s="91" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E22" s="91"/>
       <c r="F22" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="G22" s="134">
+      <c r="G22" s="135">
         <v>41705</v>
       </c>
       <c r="H22" s="93"/>
+      <c r="I22" s="94"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="87"/>
       <c r="B23" s="87" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C23" s="88"/>
       <c r="D23" s="88"/>
@@ -3878,17 +4209,17 @@
     </row>
     <row r="24" spans="1:9" ht="63.75">
       <c r="A24" s="91" t="str">
-        <f>IF(OR(B24&lt;&gt;"",D24&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-13,"##")&amp;"]","")</f>
-        <v>[PromotionManagement-11]</v>
+        <f>IF(OR(B24&lt;&gt;"",D24&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-12,"##")&amp;"]","")</f>
+        <v>[PromotionManagement-12]</v>
       </c>
       <c r="B24" s="91" t="s">
         <v>77</v>
       </c>
       <c r="C24" s="91" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D24" s="91" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E24" s="91"/>
       <c r="F24" s="91" t="s">
@@ -3899,8 +4230,43 @@
       </c>
       <c r="H24" s="93"/>
     </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="87"/>
+      <c r="B25" s="87" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="89"/>
+    </row>
+    <row r="26" spans="1:9" ht="63.75">
+      <c r="A26" s="91" t="str">
+        <f>IF(OR(B26&lt;&gt;"",D26&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-13,"##")&amp;"]","")</f>
+        <v>[PromotionManagement-13]</v>
+      </c>
+      <c r="B26" s="91" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="91" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="91" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="91"/>
+      <c r="F26" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="134">
+        <v>41705</v>
+      </c>
+      <c r="H26" s="93"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A8:H16"/>
+  <autoFilter ref="A8:H18"/>
   <mergeCells count="5">
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
@@ -3909,7 +4275,7 @@
     <mergeCell ref="E6:F6"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F3 F7:F145">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F3 F7:F147">
       <formula1>$J$2:$J$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4612,22 +4978,22 @@
       </c>
       <c r="D11" s="121">
         <f>'Field Management'!A6</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E11" s="121">
         <f>'Field Management'!B6</f>
         <v>0</v>
       </c>
       <c r="F11" s="121">
-        <f>'Field Management'!C6</f>
-        <v>0</v>
+        <f ca="1">'Field Management'!C6</f>
+        <v>-2</v>
       </c>
       <c r="G11" s="122">
         <f>'Field Management'!D6</f>
         <v>0</v>
       </c>
       <c r="H11" s="123">
-        <f>'Field Management'!E6</f>
+        <f ca="1">'Field Management'!E6</f>
         <v>11</v>
       </c>
     </row>
@@ -4679,22 +5045,22 @@
       </c>
       <c r="D14" s="126">
         <f>SUM(D9:D13)</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E14" s="126">
         <f>SUM(E9:E13)</f>
         <v>0</v>
       </c>
       <c r="F14" s="126">
-        <f>SUM(F9:F13)</f>
-        <v>0</v>
+        <f ca="1">SUM(F9:F13)</f>
+        <v>-2</v>
       </c>
       <c r="G14" s="126">
         <f>SUM(G9:G13)</f>
         <v>0</v>
       </c>
       <c r="H14" s="127">
-        <f>SUM(H9:H13)</f>
+        <f ca="1">SUM(H9:H13)</f>
         <v>14</v>
       </c>
     </row>
@@ -4716,8 +5082,8 @@
       </c>
       <c r="D16" s="111"/>
       <c r="E16" s="132">
-        <f>(D14+E14)*100/(H14-G14)</f>
-        <v>100</v>
+        <f ca="1">(D14+E14)*100/(H14-G14)</f>
+        <v>114.28571428571429</v>
       </c>
       <c r="F16" s="111" t="s">
         <v>58</v>
@@ -4733,8 +5099,8 @@
       </c>
       <c r="D17" s="111"/>
       <c r="E17" s="132">
-        <f>D14*100/(H14-G14)</f>
-        <v>100</v>
+        <f ca="1">D14*100/(H14-G14)</f>
+        <v>114.28571428571429</v>
       </c>
       <c r="F17" s="111" t="s">
         <v>58</v>

--- a/Material/ThinhND/ThinhND_Report/Test Case.xlsx
+++ b/Material/ThinhND/ThinhND_Report/Test Case.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8190" tabRatio="821" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8190" tabRatio="821" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -17,18 +17,18 @@
     <sheet name="Field Management" sheetId="3" r:id="rId3"/>
     <sheet name="Stadium Management" sheetId="4" r:id="rId4"/>
     <sheet name="Promotion Management" sheetId="9" r:id="rId5"/>
-    <sheet name="Reservation Management" sheetId="10" r:id="rId6"/>
+    <sheet name="Reservation Management" sheetId="11" r:id="rId6"/>
     <sheet name="Test Report" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Field Management'!$A$8:$H$18</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Promotion Management'!$A$8:$H$18</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Reservation Management'!$A$8:$H$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Field Management'!$A$8:$H$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Promotion Management'!$A$8:$H$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Reservation Management'!$A$8:$H$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Stadium Management'!$A$8:$H$12</definedName>
+    <definedName name="ACTION" localSheetId="5">#REF!</definedName>
     <definedName name="ACTION">#REF!</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -219,7 +219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="212">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -415,15 +415,6 @@
     <t>View List Fields</t>
   </si>
   <si>
-    <t>Test viewing "Field Management" form</t>
-  </si>
-  <si>
-    <t>The "Field Management" view form is displayed as list with the following informations:
-- Number of field
-- Parent field
-- Field type</t>
-  </si>
-  <si>
     <t>Create Field</t>
   </si>
   <si>
@@ -441,110 +432,16 @@
 - "Xin vui lòng nhập các thông tin bắt buộc".</t>
   </si>
   <si>
-    <t>Error message will be displayed:
-- "Sân mẹ không tồn tại".</t>
-  </si>
-  <si>
-    <t>1. Login the system as Stadium Owner
-2. Go to "Quản lý sân bóng" page
-3. Click "Thêm sân" button
-4. Input require information
-- Input "1" into "Số sân" field
-- Input "2" into "Sân mẹ" field ("2" is not existed field of this stadium in database)
-- Input "11 người" into "Loại sân" field
-5. Click "Lưu" button</t>
-  </si>
-  <si>
-    <t>1. Login the system as Stadium Owner
-2. Go to "Quản lý sân bóng" page
-3. Click "Thêm sân" button
-4. Input require information
-- Input "1" into "Số sân" field
-- Blank "Sân mẹ" field
-- Input "11 người" into "Loại sân" field
-5. Click "Lưu" button</t>
-  </si>
-  <si>
-    <t>1. Login the system as Stadium Owner
-2. Go to "Quản lý sân bóng" page
-3. Click "Thêm sân" button
-4. Input require information
-- Input "2" into "Số sân" field
-- Input "1" into "Sân mẹ" field
-- Input "11 người" into "Loại sân" field
-5. Click "Lưu" button</t>
-  </si>
-  <si>
     <t>Update Field</t>
   </si>
   <si>
-    <t>1. Login the system as Stadium Owner
-2. Go to "Quản lý sân bóng" page
-3. Click in link named "2" in "Số sân" column
-4. Blank all fields
-5. Click "Lưu" button</t>
-  </si>
-  <si>
-    <t>1. Login the system as Stadium Owner
-2. Go to "Quản lý sân bóng" page
-3. Click in link named "2" in "Số sân" column
-4. Blank "Sân mẹ" field
-5. Click "Lưu" button</t>
-  </si>
-  <si>
-    <t>Activate Field</t>
-  </si>
-  <si>
     <t>Test activating a field</t>
   </si>
   <si>
     <t>Test creating a field with blank fields</t>
   </si>
   <si>
-    <t>Test creating a field with parent field not existed</t>
-  </si>
-  <si>
-    <t>Test creating a field with no parent field</t>
-  </si>
-  <si>
-    <t>Test creating a field with parent field</t>
-  </si>
-  <si>
     <t>Test updating a field with blank fields</t>
-  </si>
-  <si>
-    <t>Test updating a field with parent field not existed</t>
-  </si>
-  <si>
-    <t>Test updating a field with no parent field</t>
-  </si>
-  <si>
-    <t>Test updating a field with parent field</t>
-  </si>
-  <si>
-    <t>1. Login the system as Stadium Owner
-2. Go to "Quản lý sân bóng" page
-3. Click "Kích hoạt" button on field numbered "2"</t>
-  </si>
-  <si>
-    <t>Redirect to "Quản lý sân bóng" page with new field created</t>
-  </si>
-  <si>
-    <t>Redirect to "Quản lý sân bóng" page with field information updated</t>
-  </si>
-  <si>
-    <t>Deactivate Field</t>
-  </si>
-  <si>
-    <t>1. Login the system as Stadium Owner
-2. Go to "Quản lý sân bóng" page
-3. Click "Ngừng hoạt động" button on field numbered "2"</t>
-  </si>
-  <si>
-    <t>Reload "Quản lý sân bóng" page with field status is "Ngừng hoạt động"</t>
-  </si>
-  <si>
-    <t>Reload "Quản lý sân bóng" page with field status is "Hoạt động"</t>
   </si>
   <si>
     <t>StadiumManagement</t>
@@ -568,27 +465,9 @@
   <si>
     <t>1. Login the system as Stadium Owner
 2. Go to "Quản lý sân bóng" page
-3. Click in link named "2" in "Số sân" column
-4. Change value to "3" in "Sân mẹ" field ("3" is not existed field of this stadium in database)
-5. Click "Lưu" button</t>
-  </si>
-  <si>
-    <t>1. Login the system as Stadium Owner
-2. Go to "Quản lý sân bóng" page
-3. Click in link named "2" in "Số sân" column
-4. Change value to "1" in "Sân mẹ" field
-5. Click "Lưu" button</t>
-  </si>
-  <si>
-    <t>1. Login the system as Stadium Owner
-2. Go to "Quản lý sân bóng" page
 3. Click "Chỉnh sửa thông tin" button
 4. Change value to "thinhnd@" in "Email" field
 5. Click "Lưu" button</t>
-  </si>
-  <si>
-    <t>Error message will be displayed:
-- "Email không tồn tại, vui lòng chọn email khác".</t>
   </si>
   <si>
     <t>Test updating stadium profile with new information</t>
@@ -642,11 +521,170 @@
     <t>Test creating a promotion with blank fields</t>
   </si>
   <si>
-    <t>Test creating a promotion with field not existed</t>
-  </si>
-  <si>
     <t>Error message will be displayed:
-- "Sân bóng không tồn tại".</t>
+- "Số sân đã tồn tại, xin vui lòng chọn số sân khác".</t>
+  </si>
+  <si>
+    <t>Error message will be displayed:
+- "Số sân không chính xác, vui lòng nhập lại số sân".</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Staff
+2. Go to "Quản lý khuyến mãi" page
+3. Click "Thêm khuyến mãi" button
+4. Click "Lưu" button</t>
+  </si>
+  <si>
+    <t>Test creating a promotion with "Thời gian kết thúc" is over</t>
+  </si>
+  <si>
+    <t>Error message will be displayed:
+- "Thời gian khuyến mãi đã kết thúc, xin vui lòng chọn thời gian kết thúc khác".</t>
+  </si>
+  <si>
+    <t>Test creating a promotion with "Thời gian kết thúc" before "Thời gian bắt đầu"</t>
+  </si>
+  <si>
+    <t>Error message will be displayed:
+- "Thời gian khuyến mãi không đúng, vui lòng chọn thời gian khác".</t>
+  </si>
+  <si>
+    <t>Test creating a field with "Số sân" is not a number</t>
+  </si>
+  <si>
+    <t>Test creating a field with "Số sân" is not available</t>
+  </si>
+  <si>
+    <t>Test creating a field with blank "Sân mẹ" field</t>
+  </si>
+  <si>
+    <t>Test updating a field with "Số sân" is not a number</t>
+  </si>
+  <si>
+    <t>Test updating a field with "Số sân" is not available</t>
+  </si>
+  <si>
+    <t>Test updating a field with blank "Sân mẹ" field</t>
+  </si>
+  <si>
+    <t>Error message will be displayed:
+- "Giá trị giảm giá không chính xác, vui lòng nhập lại".</t>
+  </si>
+  <si>
+    <t>Test creating a promotion</t>
+  </si>
+  <si>
+    <t>Test creating a promotion with "Giảm giá (%)" is not a number</t>
+  </si>
+  <si>
+    <t>Redirect to "Quản lý khuyến mãi" page with new "Khuyến mãi" created</t>
+  </si>
+  <si>
+    <t>Redirect to "Quản lý sân bóng" page with new "Sân bóng" is created</t>
+  </si>
+  <si>
+    <t>Redirect to "Quản lý sân bóng" page with new information of "Sân bóng" is updated</t>
+  </si>
+  <si>
+    <t>Test updating a promotion with blank fields</t>
+  </si>
+  <si>
+    <t>Test updating a promotion with "Thời gian kết thúc" is over</t>
+  </si>
+  <si>
+    <t>Test updating a promotion with "Thời gian kết thúc" before "Thời gian bắt đầu"</t>
+  </si>
+  <si>
+    <t>Test updating a promotion with "Giảm giá (%)" is not a number</t>
+  </si>
+  <si>
+    <t>Test updating a promotion</t>
+  </si>
+  <si>
+    <t>Create Promotion</t>
+  </si>
+  <si>
+    <t>Update Promotion</t>
+  </si>
+  <si>
+    <t>Redirect to "Quản lý khuyến mãi" page with new "Khuyến mãi" information updated</t>
+  </si>
+  <si>
+    <t>View List Reservations</t>
+  </si>
+  <si>
+    <t>ReservationManagement</t>
+  </si>
+  <si>
+    <t>Test viewing "Quản lý đơn hàng" form</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Staff
+2. Click "Quản lý đơn hàng" tab in the menu.</t>
+  </si>
+  <si>
+    <t>The "Quản lý đơn hàng" view form is displayed as list with the following informations:
+- "Khánh hàng"
+- "Số sân"
+- "Thời gian"
+- "Giá"
+- "Ngày tạo đơn hàng"
+- "Tình trạng hoạt động"</t>
+  </si>
+  <si>
+    <t>Test creating a reservation with blank fields</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Staff
+2. Go to "Quản lý đơn hàng" page
+3. Click "Thêm đơn hàng" button
+4. Click "Lưu" button</t>
+  </si>
+  <si>
+    <t>Create Reservation</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Owner
+2. Go to "Quản lý sân bóng" page
+3. Click "Sửa" link on row have "Số sân" is "2"
+4. Blank all fields
+5. Click "Lưu" button</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Owner
+2. Go to "Quản lý sân bóng" page
+3. Click "Sửa" link on row have "Số sân" is "2"
+4. Blank "Sân mẹ" field
+5. Click "Lưu" button</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Owner
+2. Go to "Quản lý sân bóng" page
+3. Click "Sửa" link on row have "Số sân" is "2"
+4. Change information
+- Change value to "a" in "Số sân" field
+5. Click "Lưu" button</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Owner
+2. Go to "Quản lý sân bóng" page
+3. Click "Sửa" link on row have "Số sân" is "2"
+4. Change information
+- Change value to "1" into "Số sân" field
+5. Click "Lưu" button</t>
+  </si>
+  <si>
+    <t>Test creating a field</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Owner
+2. Go to "Quản lý sân bóng" page
+3. Click "Thêm sân" button
+4. Input require information
+- Input "a" into "Số sân" field
+- Select "1" in "Sân mẹ" field
+- Select "11 người" in "Loại sân" field
+5. Click "Lưu" button</t>
   </si>
   <si>
     <t>1. Login the system as Stadium Owner
@@ -654,7 +692,7 @@
 3. Click "Thêm sân" button
 4. Input require information
 - Input "1" into "Số sân" field
-- Input "2" into "Sân mẹ" field ("2" is not existed field of this stadium in database)
+- Select "1" in "Sân mẹ" field
 - Select "11 người" in "Loại sân" field
 5. Click "Lưu" button</t>
   </si>
@@ -664,7 +702,7 @@
 3. Click "Thêm sân" button
 4. Input require information
 - Input "1" into "Số sân" field
-- Blank "Sân mẹ" field
+- Do not select in "Sân mẹ" field
 - Select "11 người" in "Loại sân" field
 5. Click "Lưu" button</t>
   </si>
@@ -674,95 +712,56 @@
 3. Click "Thêm sân" button
 4. Input require information
 - Input "2" into "Số sân" field
-- Input "1" into "Sân mẹ" field
+- Select "1" in "Sân mẹ" field
 - Select "11 người" in "Loại sân" field
 5. Click "Lưu" button</t>
   </si>
   <si>
-    <t>Error message will be displayed:
-- "Số sân đã tồn tại, xin vui lòng chọn số sân khác".</t>
+    <t>Test updating a field</t>
+  </si>
+  <si>
+    <t>Test updating a field with "Sân mẹ" field is the child field</t>
   </si>
   <si>
     <t>1. Login the system as Stadium Owner
 2. Go to "Quản lý sân bóng" page
-3. Click "Thêm sân" button
-4. Input require information
-- Input "a" into "Số sân" field
-- Input "1" into "Sân mẹ" field
-- Select "11 người" in "Loại sân" field
+3. Click "Sửa" link on row have "Số sân" is "2"
+4. Change value to "2" in "Sân mẹ" field
 5. Click "Lưu" button</t>
+  </si>
+  <si>
+    <t>Error message will be displayed:
+- "Sân mẹ không được trùng với sân con, xin vui lòng chọn lại sân mẹ".</t>
+  </si>
+  <si>
+    <t>Test deactivating a field</t>
+  </si>
+  <si>
+    <t>Redirect to "Quản lý sân bóng" page with "Tình trạng hoạt động" of "Sân bóng" is "Hoạt động"</t>
+  </si>
+  <si>
+    <t>Redirect to "Quản lý sân bóng" page with "Tình trạng hoạt động" of "Sân bóng" is "Ngừng hoạt động"</t>
   </si>
   <si>
     <t>1. Login the system as Stadium Owner
 2. Go to "Quản lý sân bóng" page
-3. Click "Thêm sân" button
-4. Input require information
-- Input "1" into "Số sân" field
-- Input "1" into "Sân mẹ" field
-- Select "11 người" in "Loại sân" field
+3. Click "Sửa" link on row have "Số sân" is "2"
+4. Select "Hoạt động" in "Tình trạng hoạt động" field
 5. Click "Lưu" button</t>
-  </si>
-  <si>
-    <t>Error message will be displayed:
-- "Số sân không chính xác, vui lòng nhập lại số sân".</t>
   </si>
   <si>
     <t>1. Login the system as Stadium Owner
 2. Go to "Quản lý sân bóng" page
-3. Click in link named "2" in "Số sân" column
-4. Input require information
-- Input "a" into "Số sân" field
-- Input "1" into "Sân mẹ" field
-- Select "11 người" in "Loại sân" field
-5. Click "Lưu" button</t>
-  </si>
-  <si>
-    <t>1. Login the system as Stadium Owner
-2. Go to "Quản lý sân bóng" page
-3. Click in link named "2" in "Số sân" column
-4. Input require information
-- Input "1" into "Số sân" field
-- Input "1" into "Sân mẹ" field
-- Select "11 người" in "Loại sân" field
+3. Click "Sửa" link on row have "Số sân" is "2"
+4. Select "Ngừng hoạt động" in "Tình trạng hoạt động" field
 5. Click "Lưu" button</t>
   </si>
   <si>
     <t>1. Login the system as Stadium Staff
 2. Go to "Quản lý khuyến mãi" page
 3. Click "Thêm khuyến mãi" button
-4. Click "Lưu" button</t>
-  </si>
-  <si>
-    <t>Test creating a promotion with "Thời gian kết thúc" is over</t>
-  </si>
-  <si>
-    <t>Error message will be displayed:
-- "Thời gian khuyến mãi đã kết thúc, xin vui lòng chọn thời gian kết thúc khác".</t>
-  </si>
-  <si>
-    <t>Test creating a promotion with "Thời gian kết thúc" before "Thời gian bắt đầu"</t>
-  </si>
-  <si>
-    <t>Error message will be displayed:
-- "Thời gian khuyến mãi không đúng, vui lòng chọn thời gian khác".</t>
-  </si>
-  <si>
-    <t>1. Login the system as Stadium Staff
-2. Go to "Quản lý sân bóng" page
-3. Click "Thêm sân" button
 4. Input require information
-- Input "4" into "Số sân" field ("4" is not existed field of this stadium in database)
-- Input "08/03/2014" into "Thời gian bắt đầu"
-- Input "10/03/2014" into "Thời gian kết thúc" field
-- Input "10" into "Giảm giá (%)" field
-5. Click "Lưu" button</t>
-  </si>
-  <si>
-    <t>1. Login the system as Stadium Staff
-2. Go to "Quản lý sân bóng" page
-3. Click "Thêm sân" button
-4. Input require information
-- Input "1" into "Số sân" field
+- Select "1" in "Số sân" field
 - Input "05/03/2014" into "Thời gian bắt đầu"
 - Input "06/03/2014" into "Thời gian kết thúc" field
 - Input "10" into "Giảm giá (%)" field
@@ -770,85 +769,463 @@
   </si>
   <si>
     <t>1. Login the system as Stadium Staff
-2. Go to "Quản lý sân bóng" page
-3. Click "Thêm sân" button
+2. Go to "Quản lý khuyến mãi" page
+3. Click "Thêm khuyến mãi" button
 4. Input require information
-- Input "1" into "Số sân" field
-- Input "08/03/2014" into "Thời gian bắt đầu"
-- Input "06/03/2014" into "Thời gian kết thúc" field
+- Select "1" in "Số sân" field
+- Input "25/03/2014" into "Thời gian bắt đầu" field
+- Input "20/03/2014" into "Thời gian kết thúc" field
 - Input "10" into "Giảm giá (%)" field
 5. Click "Lưu" button</t>
   </si>
   <si>
     <t>1. Login the system as Stadium Staff
-2. Go to "Quản lý sân bóng" page
-3. Click "Thêm sân" button
+2. Go to "Quản lý khuyến mãi" page
+3. Click "Thêm khuyến mãi" button
 4. Input require information
-- Input "1" into "Số sân" field
-- Input "08/03/2014" into "Thời gian bắt đầu"
-- Input "10/03/2014" into "Thời gian kết thúc" field
+- Select "1" in "Số sân" field
+- Input "08/03/2014" into "Thời gian bắt đầu" field
+- Input "30/03/2014" into "Thời gian kết thúc" field
+- Input "12a" into "Giảm giá (%)" field
+5. Click "Lưu" button</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Staff
+2. Go to "Quản lý khuyến mãi" page
+3. Click "Thêm khuyến mãi" button
+4. Input require information
+- Select "1" in "Số sân" field
+- Input "08/03/2014" into "Thời gian bắt đầu" field
+- Input "30/03/2014" into "Thời gian kết thúc" field
 - Input "10" into "Giảm giá (%)" field
 5. Click "Lưu" button</t>
   </si>
   <si>
-    <t>Test creating a field with "Số sân" is not a number</t>
-  </si>
-  <si>
-    <t>Test creating a field with "Số sân" is not available</t>
-  </si>
-  <si>
-    <t>Test creating a field with blank "Sân mẹ" field</t>
-  </si>
-  <si>
-    <t>Test creating a field with "Sân mẹ" is existed</t>
-  </si>
-  <si>
-    <t>Test updating a field with "Số sân" is not a number</t>
-  </si>
-  <si>
-    <t>Test updating a field with "Số sân" is not available</t>
-  </si>
-  <si>
-    <t>Test updating a field with "Sân mẹ" is not existed</t>
-  </si>
-  <si>
-    <t>Test updating a field with blank "Sân mẹ" field</t>
-  </si>
-  <si>
-    <t>Test updating a field with "Sân mẹ" is existed</t>
-  </si>
-  <si>
-    <t>Test creating a field with "Sân mẹ" is not existed</t>
+    <t>Test activating a promotion</t>
+  </si>
+  <si>
+    <t>Test deactivating a promotion</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Owner
+2. Go to "Quản lý khuyến mãi" page
+3. Click "Sửa" link on a row
+4. Select "Ngừng hoạt động" in "Tình trạng hoạt động" field
+5. Click "Lưu" button</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Owner
+2. Go to "Quản lý khuyến mãi" page
+3. Click "Sửa" link on a row
+4. Select "Hoạt động" in "Tình trạng hoạt động" field
+5. Click "Lưu" button</t>
+  </si>
+  <si>
+    <t>Redirect to "Quản lý khuyến mãi" page with "Tình trạng hoạt động" of "Khuyến mãi" is "Ngừng hoạt động"</t>
+  </si>
+  <si>
+    <t>Redirect to "Quản lý khuyến mãi" page with "Tình trạng hoạt động" of "Khuyến mãi" is "Hoạt động"</t>
   </si>
   <si>
     <t>1. Login the system as Stadium Staff
-2. Go to "Quản lý sân bóng" page
-3. Click "Thêm sân" button
+2. Go to "Quản lý khuyến mãi" page
+3. Click "Sửa" link on a row
+4. Change information
+- Change value to "06/03/2014" in "Thời gian kết thúc" field
+5. Click "Lưu" button</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Staff
+2. Go to "Quản lý khuyến mãi" page
+3. Click "Sửa" link on a row
+4. Blank all fields
+5. Click "Lưu" button</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Staff
+2. Go to "Quản lý khuyến mãi" page
+3. Click "Sửa" link on a row
+4. Change information
+- Change "25/03/2014" into "Thời gian bắt đầu" field
+- Change "20/03/2014" into "Thời gian kết thúc" field
+5. Click "Lưu" button</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Staff
+2. Go to "Quản lý khuyến mãi" page
+3. Click "Sửa" link on a row
+4. Change information
+- Change value to "abc" in "Giảm giá (%)" field
+5. Click "Lưu" button</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Staff
+2. Go to "Quản lý khuyến mãi" page
+3. Click "Sửa" link on a row
 4. Input require information
-- Input "1" into "Số sân" field
-- Input "08/03/2014" into "Thời gian bắt đầu"
-- Input "10/03/2014" into "Thời gian kết thúc" field
-- Input "12a" into "Giảm giá (%)" field
+- Change value to "2" in "Số sân" field
+- Change value to "18/03/2014" in "Thời gian bắt đầu" field
+- Change value to "20/03/2014" in "Thời gian kết thúc" field
+- Change value to "20" in "Giảm giá (%)" field
 5. Click "Lưu" button</t>
   </si>
   <si>
     <t>Error message will be displayed:
-- "Giá trị giảm giá không chính xác, vui lòng nhập lại".</t>
-  </si>
-  <si>
-    <t>Test creating a promotion</t>
-  </si>
-  <si>
-    <t>Test creating a promotion with "Giảm giá (%)" is not a number</t>
-  </si>
-  <si>
-    <t>Redirect to "Quản lý khuyến mãi" page with new "Khuyến mãi" created</t>
-  </si>
-  <si>
-    <t>Redirect to "Quản lý sân bóng" page with new "Sân bóng" is created</t>
-  </si>
-  <si>
-    <t>Redirect to "Quản lý sân bóng" page with new information of "Sân bóng" is updated</t>
+- "Tên khách hàng không tồn tại".</t>
+  </si>
+  <si>
+    <t>Test creating a reservation with customer username is not existed</t>
+  </si>
+  <si>
+    <t>Test creating a reservation with blank customer username</t>
+  </si>
+  <si>
+    <t>Redirect to "Quản lý đơn hàng" page with new "Đơn hàng" created</t>
+  </si>
+  <si>
+    <t>Test creating a reservation with wrong email format</t>
+  </si>
+  <si>
+    <t>Error message will be displayed:
+- "Email không chính xác, vui lòng chọn email khác".</t>
+  </si>
+  <si>
+    <t>Error message will be displayed:
+- "Thời gian đặt sân đã kết thúc, vui lòng chọn thời gian khác".</t>
+  </si>
+  <si>
+    <t>Test creating a reservation with booking time is not available</t>
+  </si>
+  <si>
+    <t>Test creating a reservation with booking time is over</t>
+  </si>
+  <si>
+    <t>Error message will be displayed:
+- "Sân đã có được đặt vào thời gian này, vui lòng chọn thời gian khác".</t>
+  </si>
+  <si>
+    <t>Test creating a reservation with check "Đối thủ" with blank rival information</t>
+  </si>
+  <si>
+    <t>Error message will be displayed:
+- "Xin vui lòng nhập thông tin của đối thủ".</t>
+  </si>
+  <si>
+    <t>Test creating a reservation with rival username is not existed</t>
+  </si>
+  <si>
+    <t>Error message will be displayed:
+- "Tên đối thủ không tồn tại".</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Staff
+2. Go to "Quản lý đơn hàng" page
+3. Click "Thêm đơn hàng" button
+4. Input require information
+- Select "1" in "Số sân" field
+- Input customer information
++ Input "ABCDEF" into "Tên đầy đủ" field
++ Input "1234567890" into "Số điện thoại" field
++ Input "abcdef@ghi.jk" into "Email" field
+- Input "15/03/2014" into "Ngày" field
+- Input "16:30" in "Giờ đá bóng" field
+- Input "1:30" "Kéo dài" field
+- Check "Đối thủ" checkbox
+- Input rival information
++ Input "aaaaaa" into "Đối thủ" field
++ Input "ABC123" into "Tên đầy đủ" field
++ Input "123456789" into "Số điện thoại" field
++ Input "abc123@def.ghi" into "Email" field
+5. Click "Lưu" button</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Staff
+2. Go to "Quản lý đơn hàng" page
+3. Click "Thêm đơn hàng" button
+4. Input require information
+- Select "1" in "Số sân" field
+- Input customer information
++ Input "abc123" into "Khách hàng" field
++ Input "ABCDEF" into "Tên đầy đủ" field
++ Input "1234567890" into "Số điện thoại" field
++ Input "abcdef@ghi.jk" into "Email" field
+- Input "15/03/2014" into "Ngày" field
+- Input "16:30" in "Giờ đá bóng" field
+- Input "1:30" "Kéo dài" field
+- Uncheck "Đối thủ" checkbox
+5. Click "Lưu" button</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Staff
+2. Go to "Quản lý đơn hàng" page
+3. Click "Thêm đơn hàng" button
+4. Input require information
+- Select "1" in "Số sân" field
+- Input customer information
++ Input "ABCDEF" into "Tên đầy đủ" field
++ Input "1234567890" into "Số điện thoại" field
++ Input "abcdef@ghi.jk" into "Email" field
+- Input "15/03/2014" into "Ngày" field
+- Input "16:30" in "Giờ đá bóng" field
+- Input "1:30" "Kéo dài" field
+- Uncheck "Đối thủ" checkbox
+5. Click "Lưu" button</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Staff
+2. Go to "Quản lý đơn hàng" page
+3. Click "Thêm đơn hàng" button
+4. Input require information
+- Select "1" in "Số sân" field
+- Input customer information
++ Input "ABCDEF" into "Tên đầy đủ" field
++ Input "1234567890" into "Số điện thoại" field
++ Input "abcdef" into "Email" field
+- Input "15/03/2014" into "Ngày" field
+- Input "16:30" in "Giờ đá bóng" field
+- Input "1:30" "Kéo dài" field
+- Uncheck "Đối thủ" checkbox
+5. Click "Lưu" button</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Staff
+2. Go to "Quản lý đơn hàng" page
+3. Click "Thêm đơn hàng" button
+4. Input require information
+- Select "1" in "Số sân" field
+- Input customer information
++ Input "ABCDEF" into "Tên đầy đủ" field
++ Input "1234567890" into "Số điện thoại" field
++ Input "abcdef" into "Email" field
+- Input "14/03/2014" into "Ngày" field
+- Input "17:30" in "Giờ đá bóng" field
+- Input "1:30" "Kéo dài" field
+- Uncheck "Đối thủ" checkbox
+5. Click "Lưu" button</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Staff
+2. Go to "Quản lý đơn hàng" page
+3. Click "Thêm đơn hàng" button
+4. Input require information
+- Select "1" in "Số sân" field
+- Input customer information
++ Input "ABCDEF" into "Tên đầy đủ" field
++ Input "1234567890" into "Số điện thoại" field
++ Input "abcdef" into "Email" field
+- Input "06/03/2014" into "Ngày" field
+- Input "16:30" in "Giờ đá bóng" field
+- Input "1:30" "Kéo dài" field
+- Uncheck "Đối thủ" checkbox
+5. Click "Lưu" button</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Staff
+2. Go to "Quản lý đơn hàng" page
+3. Click "Thêm đơn hàng" button
+4. Input require information
+- Select "1" in "Số sân" field
+- Input customer information
++ Input "ABCDEF" into "Tên đầy đủ" field
++ Input "1234567890" into "Số điện thoại" field
++ Input "abcdef" into "Email" field
+- Input "15/03/2014" into "Ngày" field
+- Input "16:30" in "Giờ đá bóng" field
+- Input "1:30" "Kéo dài" field
+- Check "Đối thủ" checkbox
+5. Click "Lưu" button</t>
+  </si>
+  <si>
+    <t>Test creating a reservation with blank rival username</t>
+  </si>
+  <si>
+    <t>Test creating a reservation</t>
+  </si>
+  <si>
+    <t>Update Reservation</t>
+  </si>
+  <si>
+    <t>Test updating a reservation with blank fields</t>
+  </si>
+  <si>
+    <t>Test updating a reservation with customer username is not existed</t>
+  </si>
+  <si>
+    <t>Test updating a reservation with blank customer username</t>
+  </si>
+  <si>
+    <t>Test updating a reservation with wrong email format</t>
+  </si>
+  <si>
+    <t>Test updating a reservation with booking time is not available</t>
+  </si>
+  <si>
+    <t>Test updating a reservation with booking time is over</t>
+  </si>
+  <si>
+    <t>Test updating a reservation with check "Đối thủ" with blank rival information</t>
+  </si>
+  <si>
+    <t>Test updating a reservation with rival username is not existed</t>
+  </si>
+  <si>
+    <t>Test updating a reservation with blank rival username</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Staff
+2. Go to "Quản lý đơn hàng" page
+3. Click "Thêm đơn hàng" button
+4. Input require information
+- Select "1" in "Số sân" field
+- Input customer information
++ Input "ABCDEF" into "Tên đầy đủ" field
++ Input "1234567890" into "Số điện thoại" field
++ Input "abcdef@ghi.jk" into "Email" field
+- Input "15/03/2014" into "Ngày" field
+- Input "19:00" in "Giờ đá bóng" field
+- Input "1:30" "Kéo dài" field
+- Check "Đối thủ" checkbox
+- Input rival information
++ Input "ABC123" into "Tên đầy đủ" field
++ Input "123456789" into "Số điện thoại" field
++ Input "abc123@def.ghi" into "Email" field
+5. Click "Lưu" button</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Staff
+2. Go to "Quản lý đơn hàng" page
+3. Click "Thêm đơn hàng" button
+4. Input require information
+- Select "1" in "Số sân" field
+- Input customer information
++ Input "ABCDEF" into "Tên đầy đủ" field
++ Input "1234567890" into "Số điện thoại" field
++ Input "abcdef@ghi.jk" into "Email" field
+- Input "16/03/2014" into "Ngày" field
+- Input "16:30" in "Giờ đá bóng" field
+- Input "1:30" "Kéo dài" field
+- Check "Đối thủ" checkbox
+- Input rival information
++ Input "thinhnd" into "Đối thủ" field
++ Input "ABC123" into "Tên đầy đủ" field
++ Input "123456789" into "Số điện thoại" field
++ Input "abc123@def.ghi" into "Email" field
+5. Click "Lưu" button</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Staff
+2. Go to "Quản lý đơn hàng" page
+3. Click "Sửa" link on row have booking time is "16:30 15/03/2014"
+4. Blank all fields
+4. Click "Lưu" button</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Staff
+2. Go to "Quản lý đơn hàng" page
+3. Click "Sửa" link on row have booking time is "16:30 15/03/2014"
+4. Input require information
+- Input "abc123" into "Khách hàng" field
+5. Click "Lưu" button</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Staff
+2. Go to "Quản lý đơn hàng" page
+3. Click "Sửa" link on row have booking time is "16:30 15/03/2014"
+4. Input require information
+- Blank "Khách hàng" field
+5. Click "Lưu" button</t>
+  </si>
+  <si>
+    <t>Redirect to "Quản lý đơn hàng" page with new "Đơn hàng" information updated</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Staff
+2. Go to "Quản lý đơn hàng" page
+3. Click "Sửa" link on row have booking time is "16:30 15/03/2014"
+4. Input require information
+- Change value to "abcdef" in "Email" field of "Thông tin khách hàng" area
+5. Click "Lưu" button</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Staff
+2. Go to "Quản lý đơn hàng" page
+3. Click "Sửa" link on row have booking time is "16:30 15/03/2014"
+4. Input require information
+- Change value to "15/03/2014" into "Ngày" field
+- Change value to "19:30" in "Giờ đá bóng" field
+5. Click "Lưu" button</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Staff
+2. Go to "Quản lý đơn hàng" page
+3. Click "Sửa" link on row have booking time is "16:30 15/03/2014"
+4. Input require information
+- Change value to "06/03/2014" in "Ngày" field
+5. Click "Lưu" button</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Staff
+2. Go to "Quản lý đơn hàng" page
+3. Click "Sửa" link on row have booking time is "16:30 15/03/2014"
+4. Input require information
+- Check "Đối thủ" checkbox
+- Blank all fields in "Thông tin đối thủ" area
+5. Click "Lưu" button</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Staff
+2. Go to "Quản lý đơn hàng" page
+3. Click "Sửa" link on row have booking time is "16:30 15/03/2014"
+4. Input require information
+- Input "aaaaaa" into "Đối thủ" field of "Thông tin đối thủ" area
+5. Click "Lưu" button</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Staff
+2. Go to "Quản lý đơn hàng" page
+3. Click "Sửa" link on row have booking time is "16:30 15/03/2014"
+4. Input require information
+- Blank "Đối thủ" field
+5. Click "Lưu" button</t>
+  </si>
+  <si>
+    <t>Test updating a reservation with status change</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Staff
+2. Go to "Quản lý đơn hàng" page
+3. Click "Sửa" link on row have booking time is "16:30 15/03/2014"
+4. Input require information
+- Select "Từ chối" in "Tình trạng đơn hàng" field
+5. Click "Lưu" button</t>
+  </si>
+  <si>
+    <t>Approve Reservation</t>
+  </si>
+  <si>
+    <t>Test approve a reservation</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Staff
+2. Go to "Quản lý đơn hàng" page
+3. Click "Kích hoạt" link on row have booking time is "16:30 15/03/2014"</t>
+  </si>
+  <si>
+    <t>Reload "Quản lý đơn hàng" page with "Tình trạng hoạt động" in that row is "Hoạt động"</t>
+  </si>
+  <si>
+    <t>Deny Reservation</t>
+  </si>
+  <si>
+    <t>Test deny a reservation</t>
+  </si>
+  <si>
+    <t>1. Login the system as Stadium Staff
+2. Go to "Quản lý đơn hàng" page
+3. Click "Ngừng hoạt động" link on row have booking time is "16:30 15/03/2014"</t>
+  </si>
+  <si>
+    <t>Reload "Quản lý đơn hàng" page with "Tình trạng hoạt động" in that row is "Ngừng hoạt động"</t>
   </si>
 </sst>
 </file>
@@ -1515,7 +1892,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1869,6 +2246,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2375,13 +2758,13 @@
     <row r="2" spans="1:7" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="136" t="s">
+      <c r="C2" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="6"/>
@@ -2392,11 +2775,11 @@
       <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="137" t="s">
+      <c r="C4" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="137"/>
-      <c r="E4" s="137"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
       <c r="F4" s="9" t="s">
         <v>3</v>
       </c>
@@ -2406,36 +2789,36 @@
       <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="137" t="s">
+      <c r="C5" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="137"/>
-      <c r="E5" s="137"/>
+      <c r="D5" s="139"/>
+      <c r="E5" s="139"/>
       <c r="F5" s="9" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B6" s="138" t="s">
+      <c r="B6" s="140" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="139" t="str">
+      <c r="C6" s="141" t="str">
         <f>C5&amp;"_"&amp;"XXX"&amp;"_"&amp;"vx.x"</f>
         <v>&lt;Project Code&gt;_XXX_vx.x</v>
       </c>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
       <c r="F6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1">
-      <c r="B7" s="138"/>
-      <c r="C7" s="139"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="141"/>
       <c r="F7" s="9" t="s">
         <v>9</v>
       </c>
@@ -2592,39 +2975,39 @@
       <c r="E2" s="42"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="142" t="s">
+      <c r="B3" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="143" t="str">
+      <c r="C3" s="144"/>
+      <c r="D3" s="145" t="str">
         <f>Cover!C4</f>
         <v>&lt;Project Name&gt;</v>
       </c>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="142" t="s">
+      <c r="B4" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="142"/>
-      <c r="D4" s="143" t="str">
+      <c r="C4" s="144"/>
+      <c r="D4" s="145" t="str">
         <f>Cover!C5</f>
         <v>&lt;Project Code&gt;</v>
       </c>
-      <c r="E4" s="143"/>
-      <c r="F4" s="143"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
     </row>
     <row r="5" spans="2:6" s="43" customFormat="1" ht="84.75" customHeight="1">
-      <c r="B5" s="140" t="s">
+      <c r="B5" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="140"/>
-      <c r="D5" s="141" t="s">
+      <c r="C5" s="142"/>
+      <c r="D5" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="141"/>
-      <c r="F5" s="141"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="44"/>
@@ -2805,18 +3188,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="14.25" style="8" customWidth="1"/>
     <col min="2" max="2" width="24.125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="25.625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="33.75" style="8" customWidth="1"/>
     <col min="4" max="4" width="28.5" style="8" customWidth="1"/>
     <col min="5" max="5" width="16.875" style="8" customWidth="1"/>
     <col min="6" max="6" width="7.125" style="8" customWidth="1"/>
@@ -2842,13 +3225,13 @@
       <c r="A2" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="145" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
+      <c r="B2" s="147" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
       <c r="G2" s="72"/>
       <c r="H2" s="43"/>
       <c r="I2" s="69"/>
@@ -2860,13 +3243,13 @@
       <c r="A3" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="145" t="s">
+      <c r="B3" s="147" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
       <c r="G3" s="72"/>
       <c r="H3" s="43"/>
       <c r="I3" s="69"/>
@@ -2878,11 +3261,11 @@
       <c r="A4" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="146"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
+      <c r="B4" s="148"/>
+      <c r="C4" s="148"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
       <c r="G4" s="72"/>
       <c r="H4" s="43"/>
       <c r="I4" s="69"/>
@@ -2901,10 +3284,10 @@
       <c r="D5" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="147" t="s">
+      <c r="E5" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="147"/>
+      <c r="F5" s="149"/>
       <c r="G5" s="78"/>
       <c r="H5" s="78"/>
       <c r="I5" s="79"/>
@@ -2914,26 +3297,26 @@
     </row>
     <row r="6" spans="1:10" s="70" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="80">
-        <f>COUNTIF(F10:F1002,"Pass")</f>
-        <v>15</v>
+        <f>COUNTIF(F10:F999,"Pass")</f>
+        <v>0</v>
       </c>
       <c r="B6" s="81">
-        <f>COUNTIF(F10:F1002,"Fail")</f>
+        <f>COUNTIF(F10:F999,"Fail")</f>
         <v>0</v>
       </c>
       <c r="C6" s="81">
-        <f ca="1">E6-D6-B6-A6</f>
-        <v>-2</v>
+        <f>E6-D6-B6-A6</f>
+        <v>14</v>
       </c>
       <c r="D6" s="82">
-        <f>COUNTIF(F$10:F$1002,"N/A")</f>
+        <f>COUNTIF(F$10:F$999,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="144">
-        <f ca="1">COUNTA(A10:A1002)</f>
-        <v>11</v>
-      </c>
-      <c r="F6" s="144"/>
+      <c r="E6" s="146">
+        <f>COUNTA(A10:A999)</f>
+        <v>14</v>
+      </c>
+      <c r="F6" s="146"/>
       <c r="G6" s="78"/>
       <c r="H6" s="78"/>
       <c r="I6" s="79"/>
@@ -2995,17 +3378,17 @@
         <v>[FieldManagement-1]</v>
       </c>
       <c r="B10" s="91" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="C10" s="91" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="96" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="E10" s="92"/>
       <c r="F10" s="91" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G10" s="134">
         <v>41705</v>
@@ -3016,7 +3399,7 @@
     <row r="11" spans="1:10" s="70" customFormat="1" ht="15.75" customHeight="1">
       <c r="A11" s="88"/>
       <c r="B11" s="87" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C11" s="88"/>
       <c r="D11" s="88"/>
@@ -3028,21 +3411,21 @@
     </row>
     <row r="12" spans="1:10" ht="76.5" customHeight="1">
       <c r="A12" s="91" t="str">
-        <f t="shared" ref="A12:A17" si="0">IF(OR(B12&lt;&gt;"",D12&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" ref="A12:A16" si="0">IF(OR(B12&lt;&gt;"",D12&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[FieldManagement-2]</v>
       </c>
       <c r="B12" s="91" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C12" s="91" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D12" s="91" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E12" s="91"/>
       <c r="F12" s="91" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G12" s="134">
         <v>41705</v>
@@ -3056,17 +3439,17 @@
         <v>[FieldManagement-3]</v>
       </c>
       <c r="B13" s="91" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="C13" s="91" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="D13" s="91" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="E13" s="91"/>
       <c r="F13" s="91" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G13" s="134">
         <v>41705</v>
@@ -3080,17 +3463,17 @@
         <v>[FieldManagement-4]</v>
       </c>
       <c r="B14" s="91" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="C14" s="91" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="D14" s="91" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="E14" s="91"/>
       <c r="F14" s="91" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G14" s="134">
         <v>41705</v>
@@ -3098,23 +3481,23 @@
       <c r="H14" s="93"/>
       <c r="I14" s="94"/>
     </row>
-    <row r="15" spans="1:10" ht="162.75" customHeight="1">
+    <row r="15" spans="1:10" ht="132.75" customHeight="1">
       <c r="A15" s="91" t="str">
         <f t="shared" si="0"/>
         <v>[FieldManagement-5]</v>
       </c>
       <c r="B15" s="91" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="C15" s="91" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="D15" s="91" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="E15" s="91"/>
       <c r="F15" s="91" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G15" s="134">
         <v>41705</v>
@@ -3122,84 +3505,84 @@
       <c r="H15" s="93"/>
       <c r="I15" s="94"/>
     </row>
-    <row r="16" spans="1:10" ht="132.75" customHeight="1">
+    <row r="16" spans="1:10" ht="127.5">
       <c r="A16" s="91" t="str">
         <f t="shared" si="0"/>
         <v>[FieldManagement-6]</v>
       </c>
       <c r="B16" s="91" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C16" s="91" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="D16" s="91" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="E16" s="91"/>
       <c r="F16" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="134">
+        <v>38</v>
+      </c>
+      <c r="G16" s="135">
         <v>41705</v>
       </c>
-      <c r="H16" s="93"/>
-      <c r="I16" s="94"/>
-    </row>
-    <row r="17" spans="1:10" ht="127.5">
-      <c r="A17" s="91" t="str">
-        <f t="shared" si="0"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="98"/>
+    </row>
+    <row r="17" spans="1:10" s="70" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A17" s="87"/>
+      <c r="B17" s="87" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="88"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="90"/>
+    </row>
+    <row r="18" spans="1:10" ht="89.25">
+      <c r="A18" s="91" t="str">
+        <f>IF(OR(B18&lt;&gt;"",D18&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
         <v>[FieldManagement-7]</v>
       </c>
-      <c r="B17" s="91" t="s">
-        <v>137</v>
-      </c>
-      <c r="C17" s="91" t="s">
-        <v>118</v>
-      </c>
-      <c r="D17" s="91" t="s">
-        <v>149</v>
-      </c>
-      <c r="E17" s="91"/>
-      <c r="F17" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="135">
+      <c r="B18" s="91" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="91" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" s="91" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="134">
         <v>41705</v>
       </c>
-      <c r="H17" s="97"/>
-      <c r="I17" s="98"/>
-    </row>
-    <row r="18" spans="1:10" s="70" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A18" s="87"/>
-      <c r="B18" s="87" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="90"/>
-    </row>
-    <row r="19" spans="1:10" ht="89.25">
+      <c r="H18" s="93"/>
+      <c r="I18" s="94"/>
+    </row>
+    <row r="19" spans="1:10" ht="114.75">
       <c r="A19" s="91" t="str">
         <f>IF(OR(B19&lt;&gt;"",D19&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
         <v>[FieldManagement-8]</v>
       </c>
       <c r="B19" s="91" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="C19" s="91" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="D19" s="91" t="s">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="E19" s="91"/>
       <c r="F19" s="91" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G19" s="134">
         <v>41705</v>
@@ -3207,23 +3590,23 @@
       <c r="H19" s="93"/>
       <c r="I19" s="94"/>
     </row>
-    <row r="20" spans="1:10" ht="140.25">
+    <row r="20" spans="1:10" ht="114.75">
       <c r="A20" s="91" t="str">
-        <f>IF(OR(B20&lt;&gt;"",D20&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[FieldManagement-10]</v>
+        <f t="shared" ref="A20:A22" si="1">IF(OR(B20&lt;&gt;"",D20&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
+        <v>[FieldManagement-9]</v>
       </c>
       <c r="B20" s="91" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="C20" s="91" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D20" s="91" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="E20" s="91"/>
       <c r="F20" s="91" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G20" s="134">
         <v>41705</v>
@@ -3231,47 +3614,48 @@
       <c r="H20" s="93"/>
       <c r="I20" s="94"/>
     </row>
-    <row r="21" spans="1:10" ht="140.25">
+    <row r="21" spans="1:10" ht="102">
       <c r="A21" s="91" t="str">
-        <f>IF(OR(B21&lt;&gt;"",D21&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[FieldManagement-11]</v>
+        <f t="shared" ref="A21" si="2">IF(OR(B21&lt;&gt;"",D21&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
+        <v>[FieldManagement-10]</v>
       </c>
       <c r="B21" s="91" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C21" s="91" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="D21" s="91" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="E21" s="91"/>
       <c r="F21" s="91" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G21" s="134">
         <v>41705</v>
       </c>
       <c r="H21" s="93"/>
-      <c r="I21" s="94"/>
-    </row>
-    <row r="22" spans="1:10" ht="114.75">
+      <c r="I21" s="8"/>
+      <c r="J21" s="94"/>
+    </row>
+    <row r="22" spans="1:10" ht="89.25">
       <c r="A22" s="91" t="str">
-        <f ca="1">IF(OR(A22&lt;&gt;"",C22&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
-        <v>[FieldManagement-9]</v>
+        <f t="shared" si="1"/>
+        <v>[FieldManagement-11]</v>
       </c>
       <c r="B22" s="91" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="C22" s="91" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="D22" s="91" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="E22" s="91"/>
       <c r="F22" s="91" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G22" s="134">
         <v>41705</v>
@@ -3282,125 +3666,76 @@
     </row>
     <row r="23" spans="1:10" ht="89.25">
       <c r="A23" s="91" t="str">
-        <f ca="1">IF(OR(A23&lt;&gt;"",C23&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
-        <v>[FieldManagement-10]</v>
+        <f>IF(OR(B23&lt;&gt;"",D23&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
+        <v>[FieldManagement-12]</v>
       </c>
       <c r="B23" s="91" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C23" s="91" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="D23" s="91" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="E23" s="91"/>
       <c r="F23" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" s="134">
+        <v>38</v>
+      </c>
+      <c r="G23" s="135">
         <v>41705</v>
       </c>
       <c r="H23" s="93"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="94"/>
+      <c r="I23" s="94"/>
     </row>
     <row r="24" spans="1:10" ht="102">
       <c r="A24" s="91" t="str">
-        <f>IF(OR(B24&lt;&gt;"",D24&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
+        <f t="shared" ref="A24:A25" si="3">IF(OR(B24&lt;&gt;"",D24&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
         <v>[FieldManagement-13]</v>
       </c>
       <c r="B24" s="91" t="s">
-        <v>142</v>
+        <v>68</v>
       </c>
       <c r="C24" s="91" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="D24" s="91" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="E24" s="91"/>
       <c r="F24" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" s="135">
+        <v>38</v>
+      </c>
+      <c r="G24" s="134">
         <v>41705</v>
       </c>
       <c r="H24" s="93"/>
-      <c r="I24" s="94"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="87"/>
-      <c r="B25" s="87" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="89"/>
-    </row>
-    <row r="26" spans="1:10" ht="63.75">
-      <c r="A26" s="91" t="str">
-        <f>IF(OR(B26&lt;&gt;"",D26&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-12,"##")&amp;"]","")</f>
+    </row>
+    <row r="25" spans="1:10" ht="102">
+      <c r="A25" s="91" t="str">
+        <f t="shared" si="3"/>
         <v>[FieldManagement-14]</v>
       </c>
-      <c r="B26" s="91" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26" s="91" t="s">
-        <v>92</v>
-      </c>
-      <c r="E26" s="91"/>
-      <c r="F26" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" s="134">
+      <c r="B25" s="91" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" s="91" t="s">
+        <v>141</v>
+      </c>
+      <c r="D25" s="91" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" s="91"/>
+      <c r="F25" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="134">
         <v>41705</v>
       </c>
-      <c r="H26" s="93"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="87"/>
-      <c r="B27" s="87" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" s="88"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="89"/>
-    </row>
-    <row r="28" spans="1:10" ht="63.75">
-      <c r="A28" s="91" t="str">
-        <f>IF(OR(B28&lt;&gt;"",D28&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-13,"##")&amp;"]","")</f>
-        <v>[FieldManagement-15]</v>
-      </c>
-      <c r="B28" s="91" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" s="91" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28" s="91" t="s">
-        <v>91</v>
-      </c>
-      <c r="E28" s="91"/>
-      <c r="F28" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="G28" s="134">
-        <v>41705</v>
-      </c>
-      <c r="H28" s="93"/>
+      <c r="H25" s="93"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:H18"/>
+  <autoFilter ref="A8:H17"/>
   <mergeCells count="5">
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="B2:F2"/>
@@ -3410,7 +3745,7 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F3 E22:E23 F24:F149 F7:F21">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F3 E21:E22 F7:F20 F23:F146">
       <formula1>$J$2:$J$6</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3430,15 +3765,15 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <pane ySplit="8" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="14.375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="19.125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="25.625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="8" customWidth="1"/>
+    <col min="3" max="3" width="31.625" style="8" customWidth="1"/>
     <col min="4" max="4" width="30.125" style="8" customWidth="1"/>
     <col min="5" max="5" width="16.875" style="8" customWidth="1"/>
     <col min="6" max="6" width="7.125" style="8" customWidth="1"/>
@@ -3464,13 +3799,13 @@
       <c r="A2" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="145" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
+      <c r="B2" s="147" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
       <c r="G2" s="72"/>
       <c r="H2" s="43"/>
       <c r="I2" s="69"/>
@@ -3482,13 +3817,13 @@
       <c r="A3" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="145" t="s">
+      <c r="B3" s="147" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
       <c r="G3" s="72"/>
       <c r="H3" s="43"/>
       <c r="I3" s="69"/>
@@ -3500,11 +3835,11 @@
       <c r="A4" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="146"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
+      <c r="B4" s="148"/>
+      <c r="C4" s="148"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
       <c r="G4" s="72"/>
       <c r="H4" s="43"/>
       <c r="I4" s="69"/>
@@ -3523,10 +3858,10 @@
       <c r="D5" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="147" t="s">
+      <c r="E5" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="147"/>
+      <c r="F5" s="149"/>
       <c r="G5" s="78"/>
       <c r="H5" s="78"/>
       <c r="I5" s="79"/>
@@ -3537,7 +3872,7 @@
     <row r="6" spans="1:11" s="70" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="99">
         <f>COUNTIF(F10:F995,"Pass")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B6" s="81">
         <f>COUNTIF(F10:F995,"Fail")</f>
@@ -3545,17 +3880,17 @@
       </c>
       <c r="C6" s="81">
         <f>E6-D6-B6-A6</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" s="82">
         <f>COUNTIF(F$10:F$995,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="144">
+      <c r="E6" s="146">
         <f>COUNTA(A10:A995)</f>
         <v>3</v>
       </c>
-      <c r="F6" s="144"/>
+      <c r="F6" s="146"/>
       <c r="G6" s="78"/>
       <c r="H6" s="78"/>
       <c r="I6" s="79"/>
@@ -3601,7 +3936,7 @@
     <row r="9" spans="1:11" s="70" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="87"/>
       <c r="B9" s="87" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="C9" s="88"/>
       <c r="D9" s="88"/>
@@ -3611,23 +3946,23 @@
       <c r="H9" s="89"/>
       <c r="I9" s="90"/>
     </row>
-    <row r="10" spans="1:11" s="95" customFormat="1" ht="120.95" customHeight="1">
+    <row r="10" spans="1:11" s="95" customFormat="1" ht="93" customHeight="1">
       <c r="A10" s="91" t="str">
         <f>IF(OR(B10&lt;&gt;"",D10&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-9,"##")&amp;"]","")</f>
         <v>[StadiumManagement-1]</v>
       </c>
       <c r="B10" s="91" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="C10" s="91" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D10" s="91" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E10" s="91"/>
       <c r="F10" s="91" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G10" s="134">
         <v>41705</v>
@@ -3635,23 +3970,23 @@
       <c r="H10" s="93"/>
       <c r="I10" s="94"/>
     </row>
-    <row r="11" spans="1:11" ht="102">
+    <row r="11" spans="1:11" ht="76.5">
       <c r="A11" s="91" t="str">
         <f t="shared" ref="A11:A12" si="0">IF(OR(B11&lt;&gt;"",D11&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-9,"##")&amp;"]","")</f>
         <v>[StadiumManagement-2]</v>
       </c>
       <c r="B11" s="91" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="C11" s="91" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="D11" s="91" t="s">
-        <v>101</v>
+        <v>162</v>
       </c>
       <c r="E11" s="91"/>
       <c r="F11" s="91" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G11" s="134">
         <v>41705</v>
@@ -3665,17 +4000,17 @@
         <v>[StadiumManagement-3]</v>
       </c>
       <c r="B12" s="91" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="C12" s="91" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="D12" s="91" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="E12" s="91"/>
       <c r="F12" s="91" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G12" s="134">
         <v>41705</v>
@@ -3721,18 +4056,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <pane ySplit="8" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="14.25" style="8" customWidth="1"/>
     <col min="2" max="2" width="24.125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="25.625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="30" style="8" customWidth="1"/>
     <col min="4" max="4" width="28.5" style="8" customWidth="1"/>
     <col min="5" max="5" width="16.875" style="8" customWidth="1"/>
     <col min="6" max="6" width="7.125" style="8" customWidth="1"/>
@@ -3758,13 +4093,13 @@
       <c r="A2" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="145" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
+      <c r="B2" s="147" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
       <c r="G2" s="72"/>
       <c r="H2" s="43"/>
       <c r="I2" s="69"/>
@@ -3776,13 +4111,13 @@
       <c r="A3" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="145" t="s">
+      <c r="B3" s="147" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
       <c r="G3" s="72"/>
       <c r="H3" s="43"/>
       <c r="I3" s="69"/>
@@ -3794,11 +4129,11 @@
       <c r="A4" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="146"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
+      <c r="B4" s="148"/>
+      <c r="C4" s="148"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
       <c r="G4" s="72"/>
       <c r="H4" s="43"/>
       <c r="I4" s="69"/>
@@ -3817,10 +4152,10 @@
       <c r="D5" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="147" t="s">
+      <c r="E5" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="147"/>
+      <c r="F5" s="149"/>
       <c r="G5" s="78"/>
       <c r="H5" s="78"/>
       <c r="I5" s="79"/>
@@ -3830,26 +4165,26 @@
     </row>
     <row r="6" spans="1:10" s="70" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A6" s="80">
-        <f>COUNTIF(F10:F1000,"Pass")</f>
-        <v>13</v>
+        <f>COUNTIF(F10:F998,"Pass")</f>
+        <v>0</v>
       </c>
       <c r="B6" s="81">
-        <f>COUNTIF(F10:F1000,"Fail")</f>
+        <f>COUNTIF(F10:F998,"Fail")</f>
         <v>0</v>
       </c>
       <c r="C6" s="81">
         <f>E6-D6-B6-A6</f>
+        <v>13</v>
+      </c>
+      <c r="D6" s="82">
+        <f>COUNTIF(F$10:F$998,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="D6" s="82">
-        <f>COUNTIF(F$10:F$1000,"N/A")</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="144">
-        <f>COUNTA(A10:A1000)</f>
+      <c r="E6" s="146">
+        <f>COUNTA(A10:A998)</f>
         <v>13</v>
       </c>
-      <c r="F6" s="144"/>
+      <c r="F6" s="146"/>
       <c r="G6" s="78"/>
       <c r="H6" s="78"/>
       <c r="I6" s="79"/>
@@ -3895,7 +4230,7 @@
     <row r="9" spans="1:10" s="70" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="87"/>
       <c r="B9" s="87" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="C9" s="88"/>
       <c r="D9" s="88"/>
@@ -3911,17 +4246,17 @@
         <v>[PromotionManagement-1]</v>
       </c>
       <c r="B10" s="91" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="C10" s="91" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="D10" s="96" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="E10" s="92"/>
       <c r="F10" s="91" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G10" s="134">
         <v>41705</v>
@@ -3932,7 +4267,7 @@
     <row r="11" spans="1:10" s="70" customFormat="1" ht="15.75" customHeight="1">
       <c r="A11" s="88"/>
       <c r="B11" s="87" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="C11" s="88"/>
       <c r="D11" s="88"/>
@@ -3944,21 +4279,21 @@
     </row>
     <row r="12" spans="1:10" ht="76.5" customHeight="1">
       <c r="A12" s="91" t="str">
-        <f t="shared" ref="A12:A17" si="0">IF(OR(B12&lt;&gt;"",D12&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" ref="A12:A16" si="0">IF(OR(B12&lt;&gt;"",D12&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[PromotionManagement-2]</v>
       </c>
       <c r="B12" s="91" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="C12" s="91" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="D12" s="91" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E12" s="91"/>
       <c r="F12" s="91" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G12" s="134">
         <v>41705</v>
@@ -3966,23 +4301,23 @@
       <c r="H12" s="93"/>
       <c r="I12" s="94"/>
     </row>
-    <row r="13" spans="1:10" ht="201.75" customHeight="1">
+    <row r="13" spans="1:10" ht="187.5" customHeight="1">
       <c r="A13" s="91" t="str">
         <f t="shared" si="0"/>
         <v>[PromotionManagement-3]</v>
       </c>
       <c r="B13" s="91" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="C13" s="91" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="D13" s="91" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="E13" s="91"/>
       <c r="F13" s="91" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G13" s="134">
         <v>41705</v>
@@ -3990,23 +4325,23 @@
       <c r="H13" s="93"/>
       <c r="I13" s="94"/>
     </row>
-    <row r="14" spans="1:10" ht="170.25" customHeight="1">
+    <row r="14" spans="1:10" ht="173.25" customHeight="1">
       <c r="A14" s="91" t="str">
         <f t="shared" si="0"/>
         <v>[PromotionManagement-4]</v>
       </c>
       <c r="B14" s="91" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="C14" s="91" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="D14" s="91" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="E14" s="91"/>
       <c r="F14" s="91" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G14" s="134">
         <v>41705</v>
@@ -4014,23 +4349,23 @@
       <c r="H14" s="93"/>
       <c r="I14" s="94"/>
     </row>
-    <row r="15" spans="1:10" ht="173.25" customHeight="1">
+    <row r="15" spans="1:10" ht="177.75" customHeight="1">
       <c r="A15" s="91" t="str">
         <f t="shared" si="0"/>
         <v>[PromotionManagement-5]</v>
       </c>
       <c r="B15" s="91" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="C15" s="91" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="D15" s="91" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="E15" s="91"/>
       <c r="F15" s="91" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G15" s="134">
         <v>41705</v>
@@ -4038,84 +4373,84 @@
       <c r="H15" s="93"/>
       <c r="I15" s="94"/>
     </row>
-    <row r="16" spans="1:10" ht="177.75" customHeight="1">
+    <row r="16" spans="1:10" ht="191.25">
       <c r="A16" s="91" t="str">
         <f t="shared" si="0"/>
         <v>[PromotionManagement-6]</v>
       </c>
       <c r="B16" s="91" t="s">
-        <v>147</v>
+        <v>103</v>
       </c>
       <c r="C16" s="91" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D16" s="91" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="E16" s="91"/>
       <c r="F16" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="134">
+        <v>38</v>
+      </c>
+      <c r="G16" s="136">
         <v>41705</v>
       </c>
-      <c r="H16" s="93"/>
-      <c r="I16" s="94"/>
-    </row>
-    <row r="17" spans="1:9" ht="165.75">
-      <c r="A17" s="91" t="str">
-        <f t="shared" si="0"/>
+      <c r="H16" s="137"/>
+      <c r="I16" s="98"/>
+    </row>
+    <row r="17" spans="1:9" s="70" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A17" s="87"/>
+      <c r="B17" s="87" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="88"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="90"/>
+    </row>
+    <row r="18" spans="1:9" ht="89.25">
+      <c r="A18" s="91" t="str">
+        <f>IF(OR(B18&lt;&gt;"",D18&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
         <v>[PromotionManagement-7]</v>
       </c>
-      <c r="B17" s="91" t="s">
-        <v>146</v>
-      </c>
-      <c r="C17" s="91" t="s">
-        <v>133</v>
-      </c>
-      <c r="D17" s="91" t="s">
-        <v>148</v>
-      </c>
-      <c r="E17" s="91"/>
-      <c r="F17" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="135">
+      <c r="B18" s="91" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="91" t="s">
+        <v>153</v>
+      </c>
+      <c r="D18" s="91" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="134">
         <v>41705</v>
       </c>
-      <c r="H17" s="97"/>
-      <c r="I17" s="98"/>
-    </row>
-    <row r="18" spans="1:9" s="70" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A18" s="87"/>
-      <c r="B18" s="87" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="90"/>
-    </row>
-    <row r="19" spans="1:9" ht="89.25">
+      <c r="H18" s="93"/>
+      <c r="I18" s="94"/>
+    </row>
+    <row r="19" spans="1:9" ht="114.75">
       <c r="A19" s="91" t="str">
-        <f>IF(OR(B19&lt;&gt;"",D19&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
+        <f t="shared" ref="A19" si="1">IF(OR(B19&lt;&gt;"",D19&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
         <v>[PromotionManagement-8]</v>
       </c>
       <c r="B19" s="91" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="C19" s="91" t="s">
-        <v>74</v>
+        <v>152</v>
       </c>
       <c r="D19" s="91" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="E19" s="91"/>
       <c r="F19" s="91" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G19" s="134">
         <v>41705</v>
@@ -4123,23 +4458,23 @@
       <c r="H19" s="93"/>
       <c r="I19" s="94"/>
     </row>
-    <row r="20" spans="1:9" ht="114.75">
+    <row r="20" spans="1:9" ht="140.25">
       <c r="A20" s="91" t="str">
         <f>IF(OR(B20&lt;&gt;"",D20&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
         <v>[PromotionManagement-9]</v>
       </c>
       <c r="B20" s="91" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="C20" s="91" t="s">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="D20" s="91" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="E20" s="91"/>
       <c r="F20" s="91" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G20" s="134">
         <v>41705</v>
@@ -4147,23 +4482,23 @@
       <c r="H20" s="93"/>
       <c r="I20" s="94"/>
     </row>
-    <row r="21" spans="1:9" ht="89.25">
+    <row r="21" spans="1:9" ht="114.75">
       <c r="A21" s="91" t="str">
         <f>IF(OR(B21&lt;&gt;"",D21&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
         <v>[PromotionManagement-10]</v>
       </c>
       <c r="B21" s="91" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="C21" s="91" t="s">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="D21" s="91" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="E21" s="91"/>
       <c r="F21" s="91" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G21" s="134">
         <v>41705</v>
@@ -4171,625 +4506,78 @@
       <c r="H21" s="93"/>
       <c r="I21" s="94"/>
     </row>
-    <row r="22" spans="1:9" ht="102">
+    <row r="22" spans="1:9" ht="191.25">
       <c r="A22" s="91" t="str">
         <f>IF(OR(B22&lt;&gt;"",D22&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
         <v>[PromotionManagement-11]</v>
       </c>
       <c r="B22" s="91" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="C22" s="91" t="s">
-        <v>99</v>
+        <v>156</v>
       </c>
       <c r="D22" s="91" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="E22" s="91"/>
       <c r="F22" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" s="135">
+        <v>38</v>
+      </c>
+      <c r="G22" s="136">
         <v>41705</v>
       </c>
-      <c r="H22" s="93"/>
+      <c r="H22" s="137"/>
       <c r="I22" s="94"/>
     </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="87"/>
-      <c r="B23" s="87" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" s="88"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
-      <c r="H23" s="89"/>
-    </row>
-    <row r="24" spans="1:9" ht="63.75">
+    <row r="23" spans="1:9" ht="102">
+      <c r="A23" s="91" t="str">
+        <f>IF(OR(B23&lt;&gt;"",D23&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-12,"##")&amp;"]","")</f>
+        <v>[PromotionManagement-11]</v>
+      </c>
+      <c r="B23" s="91" t="s">
+        <v>146</v>
+      </c>
+      <c r="C23" s="91" t="s">
+        <v>149</v>
+      </c>
+      <c r="D23" s="91" t="s">
+        <v>151</v>
+      </c>
+      <c r="E23" s="91"/>
+      <c r="F23" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="134">
+        <v>41705</v>
+      </c>
+      <c r="H23" s="93"/>
+    </row>
+    <row r="24" spans="1:9" ht="102">
       <c r="A24" s="91" t="str">
-        <f>IF(OR(B24&lt;&gt;"",D24&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-12,"##")&amp;"]","")</f>
-        <v>[PromotionManagement-12]</v>
+        <f>IF(OR(B24&lt;&gt;"",D24&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-13,"##")&amp;"]","")</f>
+        <v>[PromotionManagement-11]</v>
       </c>
       <c r="B24" s="91" t="s">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="C24" s="91" t="s">
-        <v>86</v>
+        <v>148</v>
       </c>
       <c r="D24" s="91" t="s">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="E24" s="91"/>
       <c r="F24" s="91" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G24" s="134">
         <v>41705</v>
       </c>
       <c r="H24" s="93"/>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="87"/>
-      <c r="B25" s="87" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="89"/>
-    </row>
-    <row r="26" spans="1:9" ht="63.75">
-      <c r="A26" s="91" t="str">
-        <f>IF(OR(B26&lt;&gt;"",D26&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-13,"##")&amp;"]","")</f>
-        <v>[PromotionManagement-13]</v>
-      </c>
-      <c r="B26" s="91" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="91" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" s="91" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26" s="91"/>
-      <c r="F26" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" s="134">
-        <v>41705</v>
-      </c>
-      <c r="H26" s="93"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A8:H18"/>
-  <mergeCells count="5">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F3 F7:F147">
-      <formula1>$J$2:$J$6</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.74791666666666667" right="0.25" top="0.75" bottom="0.98402777777777772" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;LFacilitate_Test Case\Company&amp;Rv1.0</oddHeader>
-    <oddFooter>&amp;L&amp;"Tahoma,Regular"&amp;8 02ae-BM/PM/HDCV/FSOFT v2/0&amp;C&amp;"Tahoma,Regular"&amp;10Internal use&amp;R&amp;"Tahoma,Regular"&amp;8&amp;P/&amp;N</oddFooter>
-  </headerFooter>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="14.25" style="8" customWidth="1"/>
-    <col min="2" max="2" width="24.125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="25.625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="28.5" style="8" customWidth="1"/>
-    <col min="5" max="5" width="16.875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="7.125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="9" style="63"/>
-    <col min="8" max="8" width="17.625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="8.25" style="64" customWidth="1"/>
-    <col min="10" max="10" width="0" style="8" hidden="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="70" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A1" s="65"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="69"/>
-    </row>
-    <row r="2" spans="1:10" s="70" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="71" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="145" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="70" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="70" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A3" s="73" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="145" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="70" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="70" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="146"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="146"/>
-      <c r="F4" s="146"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="74"/>
-    </row>
-    <row r="5" spans="1:10" s="70" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A5" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="76" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="76" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="147" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="147"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="70" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="70" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="80">
-        <f>COUNTIF(F10:F998,"Pass")</f>
-        <v>11</v>
-      </c>
-      <c r="B6" s="81">
-        <f>COUNTIF(F10:F998,"Fail")</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="81">
-        <f>E6-D6-B6-A6</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="82">
-        <f>COUNTIF(F$10:F$998,"N/A")</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="144">
-        <f>COUNTA(A10:A998)</f>
-        <v>11</v>
-      </c>
-      <c r="F6" s="144"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="70" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="70" customFormat="1" ht="15" customHeight="1">
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="79"/>
-    </row>
-    <row r="8" spans="1:10" s="70" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A8" s="84" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="84" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="84" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="85" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="85" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="85" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="84" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="86"/>
-    </row>
-    <row r="9" spans="1:10" s="70" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A9" s="87"/>
-      <c r="B9" s="87" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="90"/>
-    </row>
-    <row r="10" spans="1:10" s="95" customFormat="1" ht="88.5" customHeight="1">
-      <c r="A10" s="91" t="str">
-        <f>IF(OR(B10&lt;&gt;"",D10&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-9,"##")&amp;"]","")</f>
-        <v>[StadiumOwner-1]</v>
-      </c>
-      <c r="B10" s="91" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="91" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="96" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="92"/>
-      <c r="F10" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="134">
-        <v>41705</v>
-      </c>
-      <c r="H10" s="93"/>
-      <c r="I10" s="94"/>
-    </row>
-    <row r="11" spans="1:10" s="70" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A11" s="88"/>
-      <c r="B11" s="87" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="90"/>
-    </row>
-    <row r="12" spans="1:10" ht="76.5" customHeight="1">
-      <c r="A12" s="91" t="str">
-        <f>IF(OR(B12&lt;&gt;"",D12&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[StadiumOwner-2]</v>
-      </c>
-      <c r="B12" s="91" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="91" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="91" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="134">
-        <v>41705</v>
-      </c>
-      <c r="H12" s="93"/>
-      <c r="I12" s="94"/>
-    </row>
-    <row r="13" spans="1:10" ht="162.75" customHeight="1">
-      <c r="A13" s="91" t="str">
-        <f>IF(OR(B13&lt;&gt;"",D13&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[StadiumOwner-3]</v>
-      </c>
-      <c r="B13" s="91" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="91" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="91" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="134">
-        <v>41705</v>
-      </c>
-      <c r="H13" s="93"/>
-      <c r="I13" s="94"/>
-    </row>
-    <row r="14" spans="1:10" ht="132.75" customHeight="1">
-      <c r="A14" s="91" t="str">
-        <f>IF(OR(B14&lt;&gt;"",D14&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[StadiumOwner-4]</v>
-      </c>
-      <c r="B14" s="91" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="91" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="91" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="134">
-        <v>41705</v>
-      </c>
-      <c r="H14" s="93"/>
-      <c r="I14" s="94"/>
-    </row>
-    <row r="15" spans="1:10" ht="127.5">
-      <c r="A15" s="91" t="str">
-        <f>IF(OR(B15&lt;&gt;"",D15&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[StadiumOwner-5]</v>
-      </c>
-      <c r="B15" s="91" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="91" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="91" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" s="91"/>
-      <c r="F15" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="135">
-        <v>41705</v>
-      </c>
-      <c r="H15" s="97"/>
-      <c r="I15" s="98"/>
-    </row>
-    <row r="16" spans="1:10" s="70" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A16" s="87"/>
-      <c r="B16" s="87" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="90"/>
-    </row>
-    <row r="17" spans="1:9" ht="89.25">
-      <c r="A17" s="91" t="str">
-        <f>IF(OR(B17&lt;&gt;"",D17&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
-        <v>[StadiumOwner-6]</v>
-      </c>
-      <c r="B17" s="91" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="91" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="91" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="91"/>
-      <c r="F17" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="134">
-        <v>41705</v>
-      </c>
-      <c r="H17" s="93"/>
-      <c r="I17" s="94"/>
-    </row>
-    <row r="18" spans="1:9" ht="114.75">
-      <c r="A18" s="91" t="str">
-        <f>IF(OR(B18&lt;&gt;"",D18&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
-        <v>[StadiumOwner-7]</v>
-      </c>
-      <c r="B18" s="91" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="91" t="s">
-        <v>98</v>
-      </c>
-      <c r="D18" s="91" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="91"/>
-      <c r="F18" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="134">
-        <v>41705</v>
-      </c>
-      <c r="H18" s="93"/>
-      <c r="I18" s="94"/>
-    </row>
-    <row r="19" spans="1:9" ht="89.25">
-      <c r="A19" s="91" t="str">
-        <f>IF(OR(B19&lt;&gt;"",D19&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
-        <v>[StadiumOwner-8]</v>
-      </c>
-      <c r="B19" s="91" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="91" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" s="91" t="s">
-        <v>88</v>
-      </c>
-      <c r="E19" s="91"/>
-      <c r="F19" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="134">
-        <v>41705</v>
-      </c>
-      <c r="H19" s="93"/>
-      <c r="I19" s="94"/>
-    </row>
-    <row r="20" spans="1:9" ht="102">
-      <c r="A20" s="91" t="str">
-        <f>IF(OR(B20&lt;&gt;"",D20&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
-        <v>[StadiumOwner-9]</v>
-      </c>
-      <c r="B20" s="91" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" s="91" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20" s="91" t="s">
-        <v>88</v>
-      </c>
-      <c r="E20" s="91"/>
-      <c r="F20" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" s="135">
-        <v>41705</v>
-      </c>
-      <c r="H20" s="93"/>
-      <c r="I20" s="94"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="87"/>
-      <c r="B21" s="87" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="89"/>
-    </row>
-    <row r="22" spans="1:9" ht="63.75">
-      <c r="A22" s="91" t="str">
-        <f>IF(OR(B22&lt;&gt;"",D22&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-12,"##")&amp;"]","")</f>
-        <v>[StadiumOwner-10]</v>
-      </c>
-      <c r="B22" s="91" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="91" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="91" t="s">
-        <v>92</v>
-      </c>
-      <c r="E22" s="91"/>
-      <c r="F22" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" s="134">
-        <v>41705</v>
-      </c>
-      <c r="H22" s="93"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="87"/>
-      <c r="B23" s="87" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="88"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
-      <c r="H23" s="89"/>
-    </row>
-    <row r="24" spans="1:9" ht="63.75">
-      <c r="A24" s="91" t="str">
-        <f>IF(OR(B24&lt;&gt;"",D24&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-13,"##")&amp;"]","")</f>
-        <v>[StadiumOwner-11]</v>
-      </c>
-      <c r="B24" s="91" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="91" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" s="91" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" s="91"/>
-      <c r="F24" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" s="134">
-        <v>41705</v>
-      </c>
-      <c r="H24" s="93"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A8:H16"/>
+  <autoFilter ref="A8:H17"/>
   <mergeCells count="5">
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
@@ -4813,12 +4601,823 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="14.25" style="8" customWidth="1"/>
+    <col min="2" max="2" width="24.125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="31" style="8" customWidth="1"/>
+    <col min="4" max="4" width="28.5" style="8" customWidth="1"/>
+    <col min="5" max="5" width="16.875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="7.125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="9" style="63"/>
+    <col min="8" max="8" width="17.625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="8.25" style="64" customWidth="1"/>
+    <col min="10" max="10" width="0" style="8" hidden="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="70" customFormat="1" ht="13.5" hidden="1" thickBot="1">
+      <c r="A1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="69"/>
+    </row>
+    <row r="2" spans="1:10" s="70" customFormat="1" ht="15" hidden="1" customHeight="1">
+      <c r="A2" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="147" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="70" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="70" customFormat="1" ht="25.5" hidden="1" customHeight="1">
+      <c r="A3" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="147" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="70" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="70" customFormat="1" ht="18" hidden="1" customHeight="1">
+      <c r="A4" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="148"/>
+      <c r="C4" s="148"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="74"/>
+    </row>
+    <row r="5" spans="1:10" s="70" customFormat="1" ht="19.5" hidden="1" customHeight="1">
+      <c r="A5" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="76" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="77" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="149" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="149"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="70" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="70" customFormat="1" ht="15" hidden="1" customHeight="1" thickBot="1">
+      <c r="A6" s="80">
+        <f>COUNTIF(F10:F1010,"Pass")</f>
+        <v>0</v>
+      </c>
+      <c r="B6" s="81">
+        <f>COUNTIF(F10:F1010,"Fail")</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="81">
+        <f>E6-D6-B6-A6</f>
+        <v>23</v>
+      </c>
+      <c r="D6" s="82">
+        <f>COUNTIF(F$10:F$1010,"N/A")</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="146">
+        <f>COUNTA(A10:A1010)</f>
+        <v>23</v>
+      </c>
+      <c r="F6" s="146"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="70" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="70" customFormat="1" ht="15" hidden="1" customHeight="1">
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="79"/>
+    </row>
+    <row r="8" spans="1:10" s="70" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A8" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="84" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="85" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="85" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="84" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="86"/>
+    </row>
+    <row r="9" spans="1:10" s="70" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A9" s="87"/>
+      <c r="B9" s="87" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="90"/>
+    </row>
+    <row r="10" spans="1:10" s="95" customFormat="1" ht="121.5" customHeight="1">
+      <c r="A10" s="91" t="str">
+        <f>IF(OR(B10&lt;&gt;"",D10&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-9,"##")&amp;"]","")</f>
+        <v>[ReservationManagement-1]</v>
+      </c>
+      <c r="B10" s="91" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="91" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="96" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="92"/>
+      <c r="F10" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="134">
+        <v>41705</v>
+      </c>
+      <c r="H10" s="93"/>
+      <c r="I10" s="94"/>
+    </row>
+    <row r="11" spans="1:10" s="70" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A11" s="88"/>
+      <c r="B11" s="87" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="90"/>
+    </row>
+    <row r="12" spans="1:10" ht="63" customHeight="1">
+      <c r="A12" s="91" t="str">
+        <f t="shared" ref="A12:A17" si="0">IF(OR(B12&lt;&gt;"",D12&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[ReservationManagement-2]</v>
+      </c>
+      <c r="B12" s="91" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="91" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="91" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="134">
+        <v>41705</v>
+      </c>
+      <c r="H12" s="93"/>
+      <c r="I12" s="94"/>
+    </row>
+    <row r="13" spans="1:10" ht="207" customHeight="1">
+      <c r="A13" s="91" t="str">
+        <f t="shared" si="0"/>
+        <v>[ReservationManagement-3]</v>
+      </c>
+      <c r="B13" s="91" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" s="91" t="s">
+        <v>172</v>
+      </c>
+      <c r="D13" s="91" t="s">
+        <v>157</v>
+      </c>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="134">
+        <v>41705</v>
+      </c>
+      <c r="H13" s="93"/>
+      <c r="I13" s="94"/>
+    </row>
+    <row r="14" spans="1:10" ht="194.25" customHeight="1">
+      <c r="A14" s="91" t="str">
+        <f t="shared" si="0"/>
+        <v>[ReservationManagement-4]</v>
+      </c>
+      <c r="B14" s="91" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="91" t="s">
+        <v>173</v>
+      </c>
+      <c r="D14" s="91" t="s">
+        <v>160</v>
+      </c>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="134">
+        <v>41705</v>
+      </c>
+      <c r="H14" s="93"/>
+      <c r="I14" s="94"/>
+    </row>
+    <row r="15" spans="1:10" ht="194.25" customHeight="1">
+      <c r="A15" s="91" t="str">
+        <f t="shared" si="0"/>
+        <v>[ReservationManagement-5]</v>
+      </c>
+      <c r="B15" s="91" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" s="91" t="s">
+        <v>174</v>
+      </c>
+      <c r="D15" s="91" t="s">
+        <v>162</v>
+      </c>
+      <c r="E15" s="91"/>
+      <c r="F15" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="134">
+        <v>41705</v>
+      </c>
+      <c r="H15" s="93"/>
+      <c r="I15" s="94"/>
+    </row>
+    <row r="16" spans="1:10" ht="200.25" customHeight="1">
+      <c r="A16" s="91" t="str">
+        <f t="shared" ref="A16" si="1">IF(OR(B16&lt;&gt;"",D16&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[ReservationManagement-6]</v>
+      </c>
+      <c r="B16" s="91" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" s="91" t="s">
+        <v>175</v>
+      </c>
+      <c r="D16" s="91" t="s">
+        <v>166</v>
+      </c>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="134">
+        <v>41705</v>
+      </c>
+      <c r="H16" s="93"/>
+      <c r="I16" s="94"/>
+    </row>
+    <row r="17" spans="1:9" ht="200.25" customHeight="1">
+      <c r="A17" s="91" t="str">
+        <f t="shared" si="0"/>
+        <v>[ReservationManagement-7]</v>
+      </c>
+      <c r="B17" s="91" t="s">
+        <v>165</v>
+      </c>
+      <c r="C17" s="91" t="s">
+        <v>176</v>
+      </c>
+      <c r="D17" s="91" t="s">
+        <v>163</v>
+      </c>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="134">
+        <v>41705</v>
+      </c>
+      <c r="H17" s="93"/>
+      <c r="I17" s="94"/>
+    </row>
+    <row r="18" spans="1:9" ht="200.25" customHeight="1">
+      <c r="A18" s="91" t="str">
+        <f t="shared" ref="A18:A21" si="2">IF(OR(B18&lt;&gt;"",D18&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[ReservationManagement-8]</v>
+      </c>
+      <c r="B18" s="91" t="s">
+        <v>167</v>
+      </c>
+      <c r="C18" s="91" t="s">
+        <v>177</v>
+      </c>
+      <c r="D18" s="91" t="s">
+        <v>168</v>
+      </c>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="134">
+        <v>41706</v>
+      </c>
+      <c r="H18" s="93"/>
+      <c r="I18" s="94"/>
+    </row>
+    <row r="19" spans="1:9" ht="287.25" customHeight="1">
+      <c r="A19" s="91" t="str">
+        <f t="shared" si="2"/>
+        <v>[ReservationManagement-9]</v>
+      </c>
+      <c r="B19" s="91" t="s">
+        <v>169</v>
+      </c>
+      <c r="C19" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="D19" s="91" t="s">
+        <v>170</v>
+      </c>
+      <c r="E19" s="91"/>
+      <c r="F19" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="134">
+        <v>41705</v>
+      </c>
+      <c r="H19" s="93"/>
+      <c r="I19" s="94"/>
+    </row>
+    <row r="20" spans="1:9" ht="273" customHeight="1">
+      <c r="A20" s="91" t="str">
+        <f t="shared" si="2"/>
+        <v>[ReservationManagement-10]</v>
+      </c>
+      <c r="B20" s="91" t="s">
+        <v>178</v>
+      </c>
+      <c r="C20" s="91" t="s">
+        <v>190</v>
+      </c>
+      <c r="D20" s="91" t="s">
+        <v>160</v>
+      </c>
+      <c r="E20" s="91"/>
+      <c r="F20" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="134">
+        <v>41705</v>
+      </c>
+      <c r="H20" s="93"/>
+      <c r="I20" s="94"/>
+    </row>
+    <row r="21" spans="1:9" ht="280.5">
+      <c r="A21" s="91" t="str">
+        <f t="shared" si="2"/>
+        <v>[ReservationManagement-11]</v>
+      </c>
+      <c r="B21" s="91" t="s">
+        <v>179</v>
+      </c>
+      <c r="C21" s="91" t="s">
+        <v>191</v>
+      </c>
+      <c r="D21" s="91" t="s">
+        <v>160</v>
+      </c>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="134">
+        <v>41707</v>
+      </c>
+      <c r="H21" s="93"/>
+      <c r="I21" s="98"/>
+    </row>
+    <row r="22" spans="1:9" s="70" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A22" s="87"/>
+      <c r="B22" s="87" t="s">
+        <v>180</v>
+      </c>
+      <c r="C22" s="88"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="89"/>
+      <c r="I22" s="90"/>
+    </row>
+    <row r="23" spans="1:9" ht="76.5">
+      <c r="A23" s="91" t="str">
+        <f>IF(OR(B23&lt;&gt;"",D23&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
+        <v>[ReservationManagement-12]</v>
+      </c>
+      <c r="B23" s="91" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" s="91" t="s">
+        <v>192</v>
+      </c>
+      <c r="D23" s="91" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="91"/>
+      <c r="F23" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="134">
+        <v>41705</v>
+      </c>
+      <c r="H23" s="93"/>
+      <c r="I23" s="94"/>
+    </row>
+    <row r="24" spans="1:9" ht="89.25">
+      <c r="A24" s="91" t="str">
+        <f t="shared" ref="A24:A32" si="3">IF(OR(B24&lt;&gt;"",D24&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
+        <v>[ReservationManagement-13]</v>
+      </c>
+      <c r="B24" s="91" t="s">
+        <v>182</v>
+      </c>
+      <c r="C24" s="91" t="s">
+        <v>193</v>
+      </c>
+      <c r="D24" s="91" t="s">
+        <v>157</v>
+      </c>
+      <c r="E24" s="91"/>
+      <c r="F24" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="134">
+        <v>41705</v>
+      </c>
+      <c r="H24" s="93"/>
+      <c r="I24" s="94"/>
+    </row>
+    <row r="25" spans="1:9" ht="89.25">
+      <c r="A25" s="91" t="str">
+        <f t="shared" si="3"/>
+        <v>[ReservationManagement-14]</v>
+      </c>
+      <c r="B25" s="91" t="s">
+        <v>183</v>
+      </c>
+      <c r="C25" s="91" t="s">
+        <v>194</v>
+      </c>
+      <c r="D25" s="91" t="s">
+        <v>195</v>
+      </c>
+      <c r="E25" s="91"/>
+      <c r="F25" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="134">
+        <v>41705</v>
+      </c>
+      <c r="H25" s="93"/>
+      <c r="I25" s="94"/>
+    </row>
+    <row r="26" spans="1:9" ht="102">
+      <c r="A26" s="91" t="str">
+        <f t="shared" si="3"/>
+        <v>[ReservationManagement-15]</v>
+      </c>
+      <c r="B26" s="91" t="s">
+        <v>184</v>
+      </c>
+      <c r="C26" s="91" t="s">
+        <v>196</v>
+      </c>
+      <c r="D26" s="91" t="s">
+        <v>162</v>
+      </c>
+      <c r="E26" s="91"/>
+      <c r="F26" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="134">
+        <v>41705</v>
+      </c>
+      <c r="H26" s="93"/>
+      <c r="I26" s="94"/>
+    </row>
+    <row r="27" spans="1:9" ht="127.5">
+      <c r="A27" s="91" t="str">
+        <f t="shared" si="3"/>
+        <v>[ReservationManagement-16]</v>
+      </c>
+      <c r="B27" s="91" t="s">
+        <v>185</v>
+      </c>
+      <c r="C27" s="91" t="s">
+        <v>197</v>
+      </c>
+      <c r="D27" s="91" t="s">
+        <v>166</v>
+      </c>
+      <c r="E27" s="91"/>
+      <c r="F27" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="134">
+        <v>41705</v>
+      </c>
+      <c r="H27" s="93"/>
+      <c r="I27" s="94"/>
+    </row>
+    <row r="28" spans="1:9" ht="102">
+      <c r="A28" s="91" t="str">
+        <f t="shared" si="3"/>
+        <v>[ReservationManagement-17]</v>
+      </c>
+      <c r="B28" s="91" t="s">
+        <v>186</v>
+      </c>
+      <c r="C28" s="91" t="s">
+        <v>198</v>
+      </c>
+      <c r="D28" s="91" t="s">
+        <v>163</v>
+      </c>
+      <c r="E28" s="91"/>
+      <c r="F28" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="134">
+        <v>41705</v>
+      </c>
+      <c r="H28" s="93"/>
+      <c r="I28" s="94"/>
+    </row>
+    <row r="29" spans="1:9" ht="114.75">
+      <c r="A29" s="91" t="str">
+        <f t="shared" si="3"/>
+        <v>[ReservationManagement-18]</v>
+      </c>
+      <c r="B29" s="91" t="s">
+        <v>187</v>
+      </c>
+      <c r="C29" s="91" t="s">
+        <v>199</v>
+      </c>
+      <c r="D29" s="91" t="s">
+        <v>168</v>
+      </c>
+      <c r="E29" s="91"/>
+      <c r="F29" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" s="134">
+        <v>41706</v>
+      </c>
+      <c r="H29" s="93"/>
+      <c r="I29" s="94"/>
+    </row>
+    <row r="30" spans="1:9" ht="102">
+      <c r="A30" s="91" t="str">
+        <f>IF(OR(B30&lt;&gt;"",D30&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-11,"##")&amp;"]","")</f>
+        <v>[ReservationManagement-19]</v>
+      </c>
+      <c r="B30" s="91" t="s">
+        <v>188</v>
+      </c>
+      <c r="C30" s="91" t="s">
+        <v>200</v>
+      </c>
+      <c r="D30" s="91" t="s">
+        <v>170</v>
+      </c>
+      <c r="E30" s="91"/>
+      <c r="F30" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="134">
+        <v>41705</v>
+      </c>
+      <c r="H30" s="93"/>
+      <c r="I30" s="94"/>
+    </row>
+    <row r="31" spans="1:9" ht="89.25">
+      <c r="A31" s="91" t="str">
+        <f t="shared" si="3"/>
+        <v>[ReservationManagement-20]</v>
+      </c>
+      <c r="B31" s="91" t="s">
+        <v>189</v>
+      </c>
+      <c r="C31" s="91" t="s">
+        <v>201</v>
+      </c>
+      <c r="D31" s="91" t="s">
+        <v>195</v>
+      </c>
+      <c r="E31" s="91"/>
+      <c r="F31" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="134">
+        <v>41705</v>
+      </c>
+      <c r="H31" s="93"/>
+      <c r="I31" s="94"/>
+    </row>
+    <row r="32" spans="1:9" ht="102">
+      <c r="A32" s="91" t="str">
+        <f t="shared" si="3"/>
+        <v>[ReservationManagement-21]</v>
+      </c>
+      <c r="B32" s="91" t="s">
+        <v>202</v>
+      </c>
+      <c r="C32" s="91" t="s">
+        <v>203</v>
+      </c>
+      <c r="D32" s="91" t="s">
+        <v>195</v>
+      </c>
+      <c r="E32" s="91"/>
+      <c r="F32" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="134">
+        <v>41707</v>
+      </c>
+      <c r="H32" s="93"/>
+      <c r="I32" s="94"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="87"/>
+      <c r="B33" s="87" t="s">
+        <v>204</v>
+      </c>
+      <c r="C33" s="88"/>
+      <c r="D33" s="88"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="88"/>
+      <c r="G33" s="88"/>
+      <c r="H33" s="89"/>
+    </row>
+    <row r="34" spans="1:8" ht="51">
+      <c r="A34" s="91" t="str">
+        <f>IF(OR(B34&lt;&gt;"",D34&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-12,"##")&amp;"]","")</f>
+        <v>[ReservationManagement-22]</v>
+      </c>
+      <c r="B34" s="91" t="s">
+        <v>205</v>
+      </c>
+      <c r="C34" s="91" t="s">
+        <v>206</v>
+      </c>
+      <c r="D34" s="91" t="s">
+        <v>207</v>
+      </c>
+      <c r="E34" s="91"/>
+      <c r="F34" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" s="134">
+        <v>41705</v>
+      </c>
+      <c r="H34" s="93"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="87"/>
+      <c r="B35" s="87" t="s">
+        <v>208</v>
+      </c>
+      <c r="C35" s="88"/>
+      <c r="D35" s="88"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="88"/>
+      <c r="G35" s="88"/>
+      <c r="H35" s="89"/>
+    </row>
+    <row r="36" spans="1:8" ht="51">
+      <c r="A36" s="91" t="str">
+        <f>IF(OR(B36&lt;&gt;"",D36&lt;&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-13,"##")&amp;"]","")</f>
+        <v>[ReservationManagement-23]</v>
+      </c>
+      <c r="B36" s="91" t="s">
+        <v>209</v>
+      </c>
+      <c r="C36" s="91" t="s">
+        <v>210</v>
+      </c>
+      <c r="D36" s="91" t="s">
+        <v>211</v>
+      </c>
+      <c r="E36" s="91"/>
+      <c r="F36" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="134">
+        <v>41705</v>
+      </c>
+      <c r="H36" s="93"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A8:H22"/>
+  <mergeCells count="5">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F3 F7:F157">
+      <formula1>$J$2:$J$6</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.74791666666666667" right="0.25" top="0.75" bottom="0.98402777777777772" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;LFacilitate_Test Case\Company&amp;Rv1.0</oddHeader>
+    <oddFooter>&amp;L&amp;"Tahoma,Regular"&amp;8 02ae-BM/PM/HDCV/FSOFT v2/0&amp;C&amp;"Tahoma,Regular"&amp;10Internal use&amp;R&amp;"Tahoma,Regular"&amp;8&amp;P/&amp;N</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H1"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4832,15 +5431,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1">
-      <c r="B1" s="150" t="s">
+      <c r="B1" s="152" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
       <c r="A2" s="102"/>
@@ -4856,14 +5455,14 @@
       <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="143" t="s">
+      <c r="C3" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="143"/>
-      <c r="E3" s="148" t="s">
+      <c r="D3" s="145"/>
+      <c r="E3" s="150" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="148"/>
+      <c r="F3" s="150"/>
       <c r="G3" s="105"/>
       <c r="H3" s="106"/>
     </row>
@@ -4871,14 +5470,14 @@
       <c r="B4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="143" t="s">
+      <c r="C4" s="145" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="143"/>
-      <c r="E4" s="148" t="s">
+      <c r="D4" s="145"/>
+      <c r="E4" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="148"/>
+      <c r="F4" s="150"/>
       <c r="G4" s="105"/>
       <c r="H4" s="106"/>
     </row>
@@ -4886,15 +5485,15 @@
       <c r="B5" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="143" t="str">
+      <c r="C5" s="145" t="str">
         <f>C4&amp;"_"&amp;"Test Report"&amp;"_"&amp;"vx.x"</f>
         <v>&lt;Project Code&gt;_Test Report_vx.x</v>
       </c>
-      <c r="D5" s="143"/>
-      <c r="E5" s="148" t="s">
+      <c r="D5" s="145"/>
+      <c r="E5" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="148"/>
+      <c r="F5" s="150"/>
       <c r="G5" s="105"/>
       <c r="H5" s="108" t="s">
         <v>51</v>
@@ -4905,14 +5504,14 @@
       <c r="B6" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="149" t="s">
+      <c r="C6" s="151" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="149"/>
-      <c r="E6" s="149"/>
-      <c r="F6" s="149"/>
-      <c r="G6" s="149"/>
-      <c r="H6" s="149"/>
+      <c r="D6" s="151"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="151"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1">
       <c r="A7" s="102"/>
@@ -4978,23 +5577,23 @@
       </c>
       <c r="D11" s="121">
         <f>'Field Management'!A6</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E11" s="121">
         <f>'Field Management'!B6</f>
         <v>0</v>
       </c>
       <c r="F11" s="121">
-        <f ca="1">'Field Management'!C6</f>
-        <v>-2</v>
+        <f>'Field Management'!C6</f>
+        <v>14</v>
       </c>
       <c r="G11" s="122">
         <f>'Field Management'!D6</f>
         <v>0</v>
       </c>
       <c r="H11" s="123">
-        <f ca="1">'Field Management'!E6</f>
-        <v>11</v>
+        <f>'Field Management'!E6</f>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -5008,7 +5607,7 @@
       </c>
       <c r="D12" s="121">
         <f>'Stadium Management'!A6</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E12" s="121">
         <f>'Stadium Management'!B6</f>
@@ -5016,7 +5615,7 @@
       </c>
       <c r="F12" s="121">
         <f>'Stadium Management'!C6</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G12" s="122">
         <f>'Stadium Management'!D6</f>
@@ -5029,78 +5628,111 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="118"/>
-      <c r="B13" s="119"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="123"/>
+      <c r="B13" s="119">
+        <v>3</v>
+      </c>
+      <c r="C13" s="120" t="str">
+        <f>'Promotion Management'!B2</f>
+        <v>PromotionManagement</v>
+      </c>
+      <c r="D13" s="121">
+        <f>'Promotion Management'!A6</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="121">
+        <f>'Promotion Management'!B6</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="121">
+        <f>'Promotion Management'!C6</f>
+        <v>13</v>
+      </c>
+      <c r="G13" s="121">
+        <f>'Promotion Management'!D6</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="123">
+        <f>'Promotion Management'!E6</f>
+        <v>13</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="118"/>
-      <c r="B14" s="124"/>
-      <c r="C14" s="125" t="s">
+      <c r="B14" s="119">
+        <v>4</v>
+      </c>
+      <c r="C14" s="120" t="str">
+        <f>'Reservation Management'!B2</f>
+        <v>ReservationManagement</v>
+      </c>
+      <c r="D14" s="121">
+        <f>'Reservation Management'!A6</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="121">
+        <f>'Reservation Management'!B6</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="121">
+        <f>'Reservation Management'!C6</f>
+        <v>23</v>
+      </c>
+      <c r="G14" s="121">
+        <f>'Reservation Management'!D6</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="123">
+        <f>'Reservation Management'!E6</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="118"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="125" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="126">
-        <f>SUM(D9:D13)</f>
-        <v>18</v>
-      </c>
-      <c r="E14" s="126">
-        <f>SUM(E9:E13)</f>
+      <c r="D15" s="126">
+        <f>SUM(D9:D14)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="126">
-        <f ca="1">SUM(F9:F13)</f>
-        <v>-2</v>
-      </c>
-      <c r="G14" s="126">
-        <f>SUM(G9:G13)</f>
+      <c r="E15" s="126">
+        <f>SUM(E9:E14)</f>
         <v>0</v>
       </c>
-      <c r="H14" s="127">
-        <f ca="1">SUM(H9:H13)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="111"/>
-      <c r="B15" s="128"/>
-      <c r="C15" s="111"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="130"/>
-      <c r="F15" s="130"/>
-      <c r="G15" s="130"/>
-      <c r="H15" s="130"/>
+      <c r="F15" s="126">
+        <f>SUM(F9:F14)</f>
+        <v>53</v>
+      </c>
+      <c r="G15" s="126">
+        <f>SUM(G9:G14)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="127">
+        <f>SUM(H9:H14)</f>
+        <v>53</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="111"/>
-      <c r="B16" s="111"/>
-      <c r="C16" s="131" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="111"/>
-      <c r="E16" s="132">
-        <f ca="1">(D14+E14)*100/(H14-G14)</f>
-        <v>114.28571428571429</v>
-      </c>
-      <c r="F16" s="111" t="s">
-        <v>58</v>
-      </c>
-      <c r="G16" s="111"/>
-      <c r="H16" s="83"/>
+      <c r="B16" s="128"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="130"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="111"/>
       <c r="B17" s="111"/>
       <c r="C17" s="131" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D17" s="111"/>
       <c r="E17" s="132">
-        <f ca="1">D14*100/(H14-G14)</f>
-        <v>114.28571428571429</v>
+        <f>(D15+E15)*100/(H15-G15)</f>
+        <v>0</v>
       </c>
       <c r="F17" s="111" t="s">
         <v>58</v>
@@ -5109,8 +5741,25 @@
       <c r="H17" s="83"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="C18" s="111"/>
+      <c r="A18" s="111"/>
+      <c r="B18" s="111"/>
+      <c r="C18" s="131" t="s">
+        <v>59</v>
+      </c>
       <c r="D18" s="111"/>
+      <c r="E18" s="132">
+        <f>D15*100/(H15-G15)</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="111" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="111"/>
+      <c r="H18" s="83"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="C19" s="111"/>
+      <c r="D19" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="8">
